--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63341.65450919381</v>
+        <v>52955.95282409917</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24332675.54125328</v>
+        <v>24370707.14139924</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14726173.35006116</v>
+        <v>14731932.38286372</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3909745.871429612</v>
+        <v>3912653.738734324</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>13.19650969861337</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
     </row>
     <row r="12">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>13.19650969861337</v>
       </c>
     </row>
     <row r="13">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>13.19650969861337</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>13.19650969861337</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>24.81619653502539</v>
       </c>
       <c r="W14" t="n">
-        <v>14.98241337263099</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>14.98241337263099</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.98241337263099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.19650969861337</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>14.98241337263099</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="V15" t="n">
-        <v>14.98241337263099</v>
+        <v>24.81619653502539</v>
       </c>
       <c r="W15" t="n">
-        <v>14.98241337263099</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>13.19650969861337</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>14.98241337263099</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>14.98241337263099</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.98241337263099</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>24.8161965350254</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="U17" t="n">
-        <v>66.89487755631831</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>66.89487755631829</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.469579910408618</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.94786280235959</v>
+        <v>0.4856502303879093</v>
       </c>
       <c r="C19" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>66.89487755631829</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>66.89487755631831</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>75.94786280235959</v>
+        <v>66.89487755631826</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="V20" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>66.89487755631829</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>66.89487755631828</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.89487755631829</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.89487755631828</v>
       </c>
       <c r="U22" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="W22" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>262.0380368696291</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.39812025525839</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>138.074639875342</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,13 +2405,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>92.17944983766363</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7337711575492</v>
+        <v>54.6275518304074</v>
       </c>
       <c r="H24" t="n">
         <v>58.58122432777904</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>152.9662577680471</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.2700923522025</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>243.8085635928684</v>
+        <v>119.0043462365341</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>24.12199174413242</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.39812025525839</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>49.93326121215053</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>89.04293997589238</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H27" t="n">
         <v>58.58122432777904</v>
@@ -2687,7 +2687,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T27" t="n">
-        <v>152.9662577680471</v>
+        <v>17.98753873879432</v>
       </c>
       <c r="U27" t="n">
         <v>195.2992474636072</v>
@@ -2715,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.2700923522025</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T28" t="n">
-        <v>189.9659899083187</v>
+        <v>225.839677554758</v>
       </c>
       <c r="U28" t="n">
         <v>279.9159111551209</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>284.8523424972948</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>83.39812025525839</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>89.30341514271174</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T30" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
-        <v>195.2992474636072</v>
+        <v>60.32052843435502</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>160.9946172538934</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2964,7 +2964,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>139.2678442953623</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>108.8801521351007</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>108.3044535985243</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>307.6435382738943</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>223.2896626024765</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3094,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7337711575492</v>
+        <v>28.33627645607568</v>
       </c>
       <c r="H33" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T33" t="n">
         <v>152.9662577680471</v>
@@ -3176,7 +3176,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>107.7017207126669</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="34">
@@ -3189,19 +3189,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>52.35480292856623</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T34" t="n">
-        <v>201.4487303919005</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3268,19 +3268,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>9.481310651747693</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U35" t="n">
-        <v>197.4064899777322</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>28.33627645607612</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>195.2992474636072</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>76.59569270764382</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>28.00011717113316</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>133.3581581359041</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>85.2700923522025</v>
@@ -3483,7 +3483,7 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3556,7 +3556,7 @@
         <v>83.39812025525839</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U38" t="n">
         <v>254.3124908149276</v>
@@ -3565,13 +3565,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>109.6174268751289</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>329.6724809867791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,10 +3596,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>28.33627645607612</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>28.33627645607568</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>22.65777002326581</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>77.09036382682797</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T40" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>46.90874733744521</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>225.2550868857333</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,10 +3833,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7337711575492</v>
+        <v>28.33627645607612</v>
       </c>
       <c r="H42" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>39.58400301324347</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3912,10 +3912,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>95.67954325290849</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.9032904027983</v>
+        <v>222.0191614322494</v>
       </c>
       <c r="U43" t="n">
         <v>279.9159111551209</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>137.573833112385</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H44" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>83.39812025525839</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>371.844801041213</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.6754635109996</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
-        <v>58.01809521505031</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098184</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
-        <v>152.7312370348056</v>
+        <v>17.98753873879477</v>
       </c>
       <c r="U45" t="n">
-        <v>195.2954114342289</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4137,10 +4137,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4149,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.2700923522025</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>67.12451042784413</v>
       </c>
       <c r="T46" t="n">
-        <v>200.4478288265914</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>14.52840084618762</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>16.03118230871516</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>30.86377154761985</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>42.05119360838901</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>56.88378284729369</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>29.66215172763307</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>14.52840084618762</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>11.35731707395024</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>26.18990631285492</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>41.0224955517596</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>55.85508479066429</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>29.66215172763307</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>14.52840084618762</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>29.66215172763307</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>29.66215172763307</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>14.52840084618762</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.19859306981048</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>16.03118230871516</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>16.03118230871516</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>16.03118230871516</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>16.03118230871516</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>30.26447501271461</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>30.26447501271461</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>45.09706425161929</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>59.92965349052398</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.79590260907852</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>29.66215172763307</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.52840084618762</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="C14" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="D14" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="E14" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="F14" t="n">
-        <v>1.19859306981048</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="G14" t="n">
-        <v>1.19859306981048</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="H14" t="n">
-        <v>1.19859306981048</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="I14" t="n">
-        <v>1.19859306981048</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="J14" t="n">
-        <v>1.19859306981048</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="K14" t="n">
-        <v>1.19859306981048</v>
+        <v>30.14683275712667</v>
       </c>
       <c r="L14" t="n">
-        <v>1.19859306981048</v>
+        <v>55.05476388455352</v>
       </c>
       <c r="M14" t="n">
-        <v>16.03118230871516</v>
+        <v>75.02007195207915</v>
       </c>
       <c r="N14" t="n">
-        <v>30.26447501271461</v>
+        <v>97.17703197065163</v>
       </c>
       <c r="O14" t="n">
-        <v>45.09706425161929</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="P14" t="n">
-        <v>45.09706425161929</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.09706425161929</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="R14" t="n">
-        <v>59.92965349052398</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="S14" t="n">
-        <v>59.92965349052398</v>
+        <v>84.23923813942693</v>
       </c>
       <c r="T14" t="n">
-        <v>59.92965349052398</v>
+        <v>55.78003606529621</v>
       </c>
       <c r="U14" t="n">
-        <v>59.92965349052398</v>
+        <v>55.78003606529621</v>
       </c>
       <c r="V14" t="n">
-        <v>59.92965349052398</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="W14" t="n">
-        <v>44.79590260907852</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="X14" t="n">
-        <v>29.66215172763307</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.52840084618762</v>
+        <v>30.71317087840188</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="C15" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="D15" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="E15" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="F15" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="G15" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="H15" t="n">
-        <v>1.19859306981048</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="I15" t="n">
-        <v>1.19859306981048</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="J15" t="n">
-        <v>1.19859306981048</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="K15" t="n">
-        <v>1.19859306981048</v>
+        <v>2.253968804271154</v>
       </c>
       <c r="L15" t="n">
-        <v>11.35731707395024</v>
+        <v>21.01459797210859</v>
       </c>
       <c r="M15" t="n">
-        <v>26.18990631285492</v>
+        <v>48.90746192496411</v>
       </c>
       <c r="N15" t="n">
-        <v>41.0224955517596</v>
+        <v>76.80032587781963</v>
       </c>
       <c r="O15" t="n">
-        <v>55.8550847906643</v>
+        <v>101.0587821890425</v>
       </c>
       <c r="P15" t="n">
-        <v>59.92965349052398</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="Q15" t="n">
-        <v>59.92965349052398</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="R15" t="n">
-        <v>59.92965349052398</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="S15" t="n">
-        <v>46.59984571414683</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="T15" t="n">
-        <v>31.46609483270138</v>
+        <v>84.23923813942693</v>
       </c>
       <c r="U15" t="n">
-        <v>31.46609483270138</v>
+        <v>55.78003606529621</v>
       </c>
       <c r="V15" t="n">
-        <v>16.33234395125593</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="W15" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="X15" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.19859306981048</v>
+        <v>30.71317087840188</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.92965349052398</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="C16" t="n">
-        <v>59.92965349052398</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="D16" t="n">
-        <v>59.92965349052398</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="E16" t="n">
-        <v>59.92965349052398</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="F16" t="n">
-        <v>46.59984571414683</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="G16" t="n">
-        <v>31.46609483270138</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="H16" t="n">
-        <v>16.33234395125593</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="I16" t="n">
-        <v>1.19859306981048</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="J16" t="n">
-        <v>16.03118230871516</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="K16" t="n">
-        <v>30.86377154761985</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="L16" t="n">
-        <v>45.09706425161929</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="M16" t="n">
-        <v>45.09706425161929</v>
+        <v>2.253968804271153</v>
       </c>
       <c r="N16" t="n">
-        <v>45.09706425161929</v>
+        <v>30.14683275712667</v>
       </c>
       <c r="O16" t="n">
-        <v>59.92965349052398</v>
+        <v>58.03969670998219</v>
       </c>
       <c r="P16" t="n">
-        <v>59.92965349052398</v>
+        <v>85.93256066283772</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.92965349052398</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="R16" t="n">
-        <v>59.92965349052398</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="S16" t="n">
-        <v>59.92965349052398</v>
+        <v>112.6984402135577</v>
       </c>
       <c r="T16" t="n">
-        <v>59.92965349052398</v>
+        <v>87.63157502666331</v>
       </c>
       <c r="U16" t="n">
-        <v>59.92965349052398</v>
+        <v>59.1723729525326</v>
       </c>
       <c r="V16" t="n">
-        <v>59.92965349052398</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="W16" t="n">
-        <v>59.92965349052398</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="X16" t="n">
-        <v>59.92965349052398</v>
+        <v>30.71317087840188</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.92965349052398</v>
+        <v>2.253968804271153</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.075829024188768</v>
+        <v>159.5058548875413</v>
       </c>
       <c r="C17" t="n">
-        <v>6.075829024188768</v>
+        <v>159.5058548875413</v>
       </c>
       <c r="D17" t="n">
-        <v>6.075829024188768</v>
+        <v>159.5058548875413</v>
       </c>
       <c r="E17" t="n">
-        <v>6.075829024188768</v>
+        <v>82.79084195586502</v>
       </c>
       <c r="F17" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="G17" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="H17" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I17" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J17" t="n">
-        <v>8.51865320074794</v>
+        <v>8.518653200747877</v>
       </c>
       <c r="K17" t="n">
-        <v>32.72891329418878</v>
+        <v>32.72891329418866</v>
       </c>
       <c r="L17" t="n">
-        <v>77.70909531020685</v>
+        <v>77.70909531020681</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5843367211125</v>
+        <v>140.5843367211124</v>
       </c>
       <c r="N17" t="n">
-        <v>206.345557665515</v>
+        <v>206.3455576655149</v>
       </c>
       <c r="O17" t="n">
-        <v>263.0412330294161</v>
+        <v>263.0412330294159</v>
       </c>
       <c r="P17" t="n">
-        <v>297.4567749038208</v>
+        <v>297.4567749038205</v>
       </c>
       <c r="Q17" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R17" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S17" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="T17" t="n">
-        <v>303.7914512094384</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="U17" t="n">
-        <v>236.2208678192179</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="V17" t="n">
-        <v>159.5058548875415</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="W17" t="n">
-        <v>82.79084195586513</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="X17" t="n">
-        <v>6.075829024188768</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.075829024188768</v>
+        <v>236.2208678192175</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.64641241440927</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="C18" t="n">
-        <v>73.64641241440927</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="D18" t="n">
-        <v>6.075829024188768</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="E18" t="n">
-        <v>6.075829024188768</v>
+        <v>225.5920141258338</v>
       </c>
       <c r="F18" t="n">
-        <v>6.075829024188768</v>
+        <v>148.8770011941576</v>
       </c>
       <c r="G18" t="n">
-        <v>6.075829024188768</v>
+        <v>72.16198826248132</v>
       </c>
       <c r="H18" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I18" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J18" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="K18" t="n">
-        <v>27.18934645194808</v>
+        <v>27.18934645194803</v>
       </c>
       <c r="L18" t="n">
-        <v>74.33970537129227</v>
+        <v>74.33970537129223</v>
       </c>
       <c r="M18" t="n">
-        <v>137.2014819011799</v>
+        <v>137.2014819011797</v>
       </c>
       <c r="N18" t="n">
-        <v>207.5625237956374</v>
+        <v>207.5625237956372</v>
       </c>
       <c r="O18" t="n">
-        <v>262.9301139282922</v>
+        <v>262.9301139282918</v>
       </c>
       <c r="P18" t="n">
-        <v>299.5375944741911</v>
+        <v>299.5375944741908</v>
       </c>
       <c r="Q18" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R18" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S18" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="T18" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="U18" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="V18" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="W18" t="n">
-        <v>227.076438277762</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="X18" t="n">
-        <v>150.3614253460856</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="Y18" t="n">
-        <v>73.64641241440927</v>
+        <v>227.0764382777617</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>227.076438277762</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="C19" t="n">
-        <v>150.3614253460856</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="D19" t="n">
-        <v>150.3614253460856</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="E19" t="n">
-        <v>82.79084195586513</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="F19" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="G19" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="H19" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I19" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J19" t="n">
-        <v>6.075829024188768</v>
+        <v>48.19497630457664</v>
       </c>
       <c r="K19" t="n">
-        <v>81.26421319852476</v>
+        <v>123.3833604789125</v>
       </c>
       <c r="L19" t="n">
-        <v>156.4525973728607</v>
+        <v>198.5717446532484</v>
       </c>
       <c r="M19" t="n">
-        <v>162.9124564350699</v>
+        <v>218.5770947285861</v>
       </c>
       <c r="N19" t="n">
-        <v>172.4010124791837</v>
+        <v>228.0656507726999</v>
       </c>
       <c r="O19" t="n">
-        <v>172.938428741586</v>
+        <v>228.6030670351021</v>
       </c>
       <c r="P19" t="n">
-        <v>228.6030670351024</v>
+        <v>228.6030670351021</v>
       </c>
       <c r="Q19" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R19" t="n">
-        <v>303.7914512094384</v>
+        <v>236.7114236074881</v>
       </c>
       <c r="S19" t="n">
-        <v>303.7914512094384</v>
+        <v>159.9964106758119</v>
       </c>
       <c r="T19" t="n">
-        <v>303.7914512094384</v>
+        <v>159.9964106758119</v>
       </c>
       <c r="U19" t="n">
-        <v>303.7914512094384</v>
+        <v>83.28139774413563</v>
       </c>
       <c r="V19" t="n">
-        <v>303.7914512094384</v>
+        <v>83.28139774413563</v>
       </c>
       <c r="W19" t="n">
-        <v>303.7914512094384</v>
+        <v>83.28139774413563</v>
       </c>
       <c r="X19" t="n">
-        <v>303.7914512094384</v>
+        <v>83.28139774413563</v>
       </c>
       <c r="Y19" t="n">
-        <v>303.7914512094384</v>
+        <v>6.566384812459376</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>227.076438277762</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="C20" t="n">
-        <v>159.5058548875415</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="D20" t="n">
-        <v>159.5058548875415</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="E20" t="n">
-        <v>82.79084195586513</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="F20" t="n">
-        <v>82.79084195586513</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="G20" t="n">
-        <v>82.79084195586513</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="H20" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="I20" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="J20" t="n">
-        <v>8.518653200747849</v>
+        <v>8.518653200747899</v>
       </c>
       <c r="K20" t="n">
-        <v>32.72891329418871</v>
+        <v>32.72891329418883</v>
       </c>
       <c r="L20" t="n">
-        <v>77.70909531020698</v>
+        <v>77.70909531020709</v>
       </c>
       <c r="M20" t="n">
         <v>140.5843367211127</v>
@@ -5770,34 +5770,34 @@
         <v>263.0412330294162</v>
       </c>
       <c r="P20" t="n">
-        <v>297.4567749038209</v>
+        <v>297.4567749038208</v>
       </c>
       <c r="Q20" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R20" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S20" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="T20" t="n">
-        <v>303.7914512094384</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="U20" t="n">
-        <v>303.7914512094384</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="V20" t="n">
-        <v>227.076438277762</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="W20" t="n">
-        <v>227.076438277762</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="X20" t="n">
-        <v>227.076438277762</v>
+        <v>73.64641241440924</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.076438277762</v>
+        <v>73.64641241440924</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>227.076438277762</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="C21" t="n">
-        <v>150.3614253460856</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="D21" t="n">
-        <v>73.64641241440927</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="E21" t="n">
-        <v>73.64641241440927</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="F21" t="n">
-        <v>73.64641241440927</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="G21" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="H21" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="I21" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="J21" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="K21" t="n">
-        <v>27.18934645194804</v>
+        <v>27.18934645194805</v>
       </c>
       <c r="L21" t="n">
         <v>74.33970537129227</v>
       </c>
       <c r="M21" t="n">
-        <v>137.2014819011799</v>
+        <v>137.2014819011798</v>
       </c>
       <c r="N21" t="n">
-        <v>207.5625237956374</v>
+        <v>207.5625237956373</v>
       </c>
       <c r="O21" t="n">
-        <v>262.9301139282922</v>
+        <v>262.930113928292</v>
       </c>
       <c r="P21" t="n">
-        <v>299.5375944741911</v>
+        <v>299.5375944741909</v>
       </c>
       <c r="Q21" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R21" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S21" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="T21" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="U21" t="n">
-        <v>303.7914512094384</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="V21" t="n">
-        <v>303.7914512094384</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="W21" t="n">
-        <v>303.7914512094384</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="X21" t="n">
-        <v>303.7914512094384</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="Y21" t="n">
-        <v>227.076438277762</v>
+        <v>6.075829024188765</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="C22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="D22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="E22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="F22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="G22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="H22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="I22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="J22" t="n">
-        <v>6.075829024188768</v>
+        <v>48.19497630457664</v>
       </c>
       <c r="K22" t="n">
-        <v>81.26421319852476</v>
+        <v>123.3833604789126</v>
       </c>
       <c r="L22" t="n">
-        <v>86.1394507520682</v>
+        <v>128.258598032456</v>
       </c>
       <c r="M22" t="n">
-        <v>161.3278349264042</v>
+        <v>203.446982206792</v>
       </c>
       <c r="N22" t="n">
-        <v>228.0656507727001</v>
+        <v>212.9355382509058</v>
       </c>
       <c r="O22" t="n">
-        <v>228.6030670351024</v>
+        <v>213.472954513308</v>
       </c>
       <c r="P22" t="n">
-        <v>228.6030670351024</v>
+        <v>228.6030670351023</v>
       </c>
       <c r="Q22" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R22" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S22" t="n">
-        <v>303.7914512094384</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="T22" t="n">
-        <v>303.7914512094384</v>
+        <v>236.2208678192178</v>
       </c>
       <c r="U22" t="n">
-        <v>227.076438277762</v>
+        <v>159.5058548875414</v>
       </c>
       <c r="V22" t="n">
-        <v>227.076438277762</v>
+        <v>82.7908419558651</v>
       </c>
       <c r="W22" t="n">
-        <v>150.3614253460856</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="X22" t="n">
-        <v>150.3614253460856</v>
+        <v>6.075829024188765</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.64641241440927</v>
+        <v>6.075829024188765</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>852.3325253289315</v>
+        <v>1417.917386049801</v>
       </c>
       <c r="C23" t="n">
-        <v>442.2079346422017</v>
+        <v>1417.917386049801</v>
       </c>
       <c r="D23" t="n">
-        <v>37.74400473526219</v>
+        <v>1153.232500322903</v>
       </c>
       <c r="E23" t="n">
-        <v>37.74400473526219</v>
+        <v>1153.232500322903</v>
       </c>
       <c r="F23" t="n">
-        <v>37.74400473526219</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="G23" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H23" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I23" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526217</v>
       </c>
       <c r="J23" t="n">
         <v>151.474921851223</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987902</v>
       </c>
       <c r="L23" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131295</v>
       </c>
       <c r="M23" t="n">
         <v>887.4914597655639</v>
@@ -6016,25 +6016,25 @@
         <v>1887.200236763109</v>
       </c>
       <c r="S23" t="n">
-        <v>1802.959711252747</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="T23" t="n">
-        <v>1802.959711252747</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U23" t="n">
-        <v>1802.959711252747</v>
+        <v>1417.917386049801</v>
       </c>
       <c r="V23" t="n">
-        <v>1802.959711252747</v>
+        <v>1417.917386049801</v>
       </c>
       <c r="W23" t="n">
-        <v>1802.959711252747</v>
+        <v>1417.917386049801</v>
       </c>
       <c r="X23" t="n">
-        <v>1663.490378045331</v>
+        <v>1417.917386049801</v>
       </c>
       <c r="Y23" t="n">
-        <v>1262.553704993421</v>
+        <v>1417.917386049801</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>546.7114310628755</v>
+        <v>632.4412287417748</v>
       </c>
       <c r="C24" t="n">
-        <v>412.7163598118212</v>
+        <v>498.4461574907205</v>
       </c>
       <c r="D24" t="n">
-        <v>295.8192020312136</v>
+        <v>381.5489997101129</v>
       </c>
       <c r="E24" t="n">
-        <v>202.7086466396342</v>
+        <v>261.0561837024409</v>
       </c>
       <c r="F24" t="n">
-        <v>202.7086466396342</v>
+        <v>152.0963038849455</v>
       </c>
       <c r="G24" t="n">
         <v>96.91695860170566</v>
       </c>
       <c r="H24" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28095199337144</v>
+        <v>38.28095199337143</v>
       </c>
       <c r="J24" t="n">
-        <v>98.39707907527364</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K24" t="n">
-        <v>232.7978194276821</v>
+        <v>693.0854602047123</v>
       </c>
       <c r="L24" t="n">
-        <v>508.0881561115598</v>
+        <v>892.5644708578957</v>
       </c>
       <c r="M24" t="n">
-        <v>748.7102843365062</v>
+        <v>1133.186599082842</v>
       </c>
       <c r="N24" t="n">
-        <v>1001.536465492956</v>
+        <v>1386.012780239292</v>
       </c>
       <c r="O24" t="n">
-        <v>1223.824010591889</v>
+        <v>1608.300325338224</v>
       </c>
       <c r="P24" t="n">
-        <v>1690.906069190758</v>
+        <v>1778.875785667739</v>
       </c>
       <c r="Q24" t="n">
-        <v>1784.713972589204</v>
+        <v>1872.683689066185</v>
       </c>
       <c r="R24" t="n">
         <v>1887.200236763109</v>
       </c>
       <c r="S24" t="n">
-        <v>1801.470439084209</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="T24" t="n">
-        <v>1646.959067601334</v>
+        <v>1732.688865280233</v>
       </c>
       <c r="U24" t="n">
-        <v>1449.687100466377</v>
+        <v>1535.416898145276</v>
       </c>
       <c r="V24" t="n">
-        <v>1235.97557345941</v>
+        <v>1321.70537113831</v>
       </c>
       <c r="W24" t="n">
-        <v>1022.742405195739</v>
+        <v>1108.472202874639</v>
       </c>
       <c r="X24" t="n">
-        <v>846.4164233346321</v>
+        <v>932.1462210135314</v>
       </c>
       <c r="Y24" t="n">
-        <v>687.0144636984621</v>
+        <v>772.7442613773615</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.8373771735457</v>
+        <v>601.889045894738</v>
       </c>
       <c r="C25" t="n">
-        <v>37.74400473526219</v>
+        <v>430.7956734564545</v>
       </c>
       <c r="D25" t="n">
-        <v>37.74400473526219</v>
+        <v>430.7956734564545</v>
       </c>
       <c r="E25" t="n">
-        <v>37.74400473526219</v>
+        <v>430.7956734564545</v>
       </c>
       <c r="F25" t="n">
-        <v>37.74400473526219</v>
+        <v>430.7956734564545</v>
       </c>
       <c r="G25" t="n">
-        <v>37.74400473526219</v>
+        <v>264.550001348964</v>
       </c>
       <c r="H25" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="I25" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="J25" t="n">
         <v>121.4466158487821</v>
@@ -6156,10 +6156,10 @@
         <v>482.7258406538465</v>
       </c>
       <c r="M25" t="n">
-        <v>584.1658570120758</v>
+        <v>899.2406164308161</v>
       </c>
       <c r="N25" t="n">
-        <v>1015.694429651404</v>
+        <v>1330.769189070144</v>
       </c>
       <c r="O25" t="n">
         <v>1414.441451118523</v>
@@ -6171,28 +6171,28 @@
         <v>1887.200236763109</v>
       </c>
       <c r="R25" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="S25" t="n">
-        <v>1678.221080048313</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="T25" t="n">
-        <v>1442.965231156597</v>
+        <v>1651.944387871393</v>
       </c>
       <c r="U25" t="n">
-        <v>1160.221886555465</v>
+        <v>1651.944387871393</v>
       </c>
       <c r="V25" t="n">
-        <v>913.9506101990323</v>
+        <v>1531.73797753146</v>
       </c>
       <c r="W25" t="n">
-        <v>634.8809457079067</v>
+        <v>1252.668313040334</v>
       </c>
       <c r="X25" t="n">
-        <v>396.5370835675901</v>
+        <v>1014.324450900018</v>
       </c>
       <c r="Y25" t="n">
-        <v>396.5370835675901</v>
+        <v>789.5887522887824</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1283.239222951408</v>
+        <v>1266.672740812035</v>
       </c>
       <c r="C26" t="n">
-        <v>873.114632264678</v>
+        <v>856.548150125305</v>
       </c>
       <c r="D26" t="n">
-        <v>873.114632264678</v>
+        <v>452.0842202183655</v>
       </c>
       <c r="E26" t="n">
-        <v>458.7744167815746</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="F26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="G26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="H26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526217</v>
       </c>
       <c r="J26" t="n">
         <v>151.474921851223</v>
       </c>
       <c r="K26" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987902</v>
       </c>
       <c r="L26" t="n">
         <v>594.3775951131295</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655638</v>
+        <v>887.4914597655639</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582613</v>
@@ -6247,31 +6247,31 @@
         <v>1687.808675484972</v>
       </c>
       <c r="Q26" t="n">
-        <v>1835.740277181653</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R26" t="n">
         <v>1887.200236763109</v>
       </c>
       <c r="S26" t="n">
-        <v>1802.959711252747</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="T26" t="n">
-        <v>1590.558164392901</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U26" t="n">
-        <v>1333.676860539439</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V26" t="n">
-        <v>1283.239222951408</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="W26" t="n">
-        <v>1283.239222951408</v>
+        <v>1291.038389038431</v>
       </c>
       <c r="X26" t="n">
-        <v>1283.239222951408</v>
+        <v>1291.038389038431</v>
       </c>
       <c r="Y26" t="n">
-        <v>1283.239222951408</v>
+        <v>1291.038389038431</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>546.7114310628755</v>
+        <v>683.0535714964635</v>
       </c>
       <c r="C27" t="n">
-        <v>412.7163598118212</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="D27" t="n">
-        <v>295.8192020312136</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E27" t="n">
-        <v>295.8192020312136</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F27" t="n">
-        <v>186.8593222137182</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G27" t="n">
         <v>96.91695860170566</v>
       </c>
       <c r="H27" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28095199337143</v>
+        <v>57.84875584306883</v>
       </c>
       <c r="J27" t="n">
-        <v>98.39707907527361</v>
+        <v>117.964882924971</v>
       </c>
       <c r="K27" t="n">
-        <v>565.4791376741432</v>
+        <v>252.3656232773795</v>
       </c>
       <c r="L27" t="n">
-        <v>764.9581483273266</v>
+        <v>451.844633930563</v>
       </c>
       <c r="M27" t="n">
-        <v>1005.580276552273</v>
+        <v>692.4667621555094</v>
       </c>
       <c r="N27" t="n">
-        <v>1258.406457708723</v>
+        <v>945.2929433119592</v>
       </c>
       <c r="O27" t="n">
-        <v>1480.694002807655</v>
+        <v>1412.375001910829</v>
       </c>
       <c r="P27" t="n">
-        <v>1651.26946313717</v>
+        <v>1582.950462240343</v>
       </c>
       <c r="Q27" t="n">
-        <v>1784.713972589204</v>
+        <v>1872.683689066185</v>
       </c>
       <c r="R27" t="n">
         <v>1887.200236763109</v>
@@ -6335,22 +6335,22 @@
         <v>1801.470439084209</v>
       </c>
       <c r="T27" t="n">
-        <v>1646.959067601334</v>
+        <v>1783.301208034922</v>
       </c>
       <c r="U27" t="n">
-        <v>1449.687100466377</v>
+        <v>1586.029240899965</v>
       </c>
       <c r="V27" t="n">
-        <v>1235.97557345941</v>
+        <v>1372.317713892999</v>
       </c>
       <c r="W27" t="n">
-        <v>1022.742405195739</v>
+        <v>1159.084545629327</v>
       </c>
       <c r="X27" t="n">
-        <v>846.4164233346321</v>
+        <v>982.7585637682201</v>
       </c>
       <c r="Y27" t="n">
-        <v>687.0144636984621</v>
+        <v>823.3566041320502</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.8373771735457</v>
+        <v>754.9214440229532</v>
       </c>
       <c r="C28" t="n">
-        <v>37.74400473526219</v>
+        <v>754.9214440229532</v>
       </c>
       <c r="D28" t="n">
-        <v>37.74400473526219</v>
+        <v>595.4267993458632</v>
       </c>
       <c r="E28" t="n">
-        <v>37.74400473526219</v>
+        <v>595.4267993458632</v>
       </c>
       <c r="F28" t="n">
-        <v>37.74400473526219</v>
+        <v>430.7956734564545</v>
       </c>
       <c r="G28" t="n">
-        <v>37.74400473526219</v>
+        <v>264.550001348964</v>
       </c>
       <c r="H28" t="n">
-        <v>37.74400473526219</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="I28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="J28" t="n">
-        <v>121.446615848782</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K28" t="n">
-        <v>363.2966816288308</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L28" t="n">
-        <v>455.6164308870214</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M28" t="n">
-        <v>899.2406164308163</v>
+        <v>895.3627879183791</v>
       </c>
       <c r="N28" t="n">
-        <v>1330.769189070145</v>
+        <v>1015.694429651404</v>
       </c>
       <c r="O28" t="n">
         <v>1414.441451118523</v>
@@ -6408,28 +6408,28 @@
         <v>1887.200236763109</v>
       </c>
       <c r="R28" t="n">
-        <v>1887.200236763109</v>
+        <v>1847.10333671682</v>
       </c>
       <c r="S28" t="n">
-        <v>1887.200236763109</v>
+        <v>1678.221080048313</v>
       </c>
       <c r="T28" t="n">
-        <v>1695.315398471878</v>
+        <v>1450.100193629365</v>
       </c>
       <c r="U28" t="n">
-        <v>1412.572053870746</v>
+        <v>1167.356849028233</v>
       </c>
       <c r="V28" t="n">
-        <v>1138.686308810268</v>
+        <v>1167.356849028233</v>
       </c>
       <c r="W28" t="n">
-        <v>859.6166443191421</v>
+        <v>1167.356849028233</v>
       </c>
       <c r="X28" t="n">
-        <v>621.2727821788254</v>
+        <v>1167.356849028233</v>
       </c>
       <c r="Y28" t="n">
-        <v>396.5370835675901</v>
+        <v>942.6211504169976</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1136.42600904768</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="C29" t="n">
-        <v>1136.42600904768</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="D29" t="n">
-        <v>731.9620791407406</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="E29" t="n">
-        <v>731.9620791407406</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F29" t="n">
-        <v>444.2324402545842</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G29" t="n">
         <v>37.74400473526219</v>
@@ -6469,10 +6469,10 @@
         <v>342.4771847987902</v>
       </c>
       <c r="L29" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131294</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655639</v>
+        <v>887.4914597655637</v>
       </c>
       <c r="N29" t="n">
         <v>1187.216805582613</v>
@@ -6481,7 +6481,7 @@
         <v>1464.838169622266</v>
       </c>
       <c r="P29" t="n">
-        <v>1687.808675484973</v>
+        <v>1687.808675484972</v>
       </c>
       <c r="Q29" t="n">
         <v>1835.740277181654</v>
@@ -6490,25 +6490,25 @@
         <v>1887.200236763109</v>
       </c>
       <c r="S29" t="n">
-        <v>1887.200236763109</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="T29" t="n">
-        <v>1887.200236763109</v>
+        <v>1590.558164392901</v>
       </c>
       <c r="U29" t="n">
-        <v>1887.200236763109</v>
+        <v>1333.676860539439</v>
       </c>
       <c r="V29" t="n">
-        <v>1537.36268209959</v>
+        <v>1333.676860539439</v>
       </c>
       <c r="W29" t="n">
-        <v>1537.36268209959</v>
+        <v>949.9165596746075</v>
       </c>
       <c r="X29" t="n">
-        <v>1537.36268209959</v>
+        <v>859.7110898334845</v>
       </c>
       <c r="Y29" t="n">
-        <v>1136.42600904768</v>
+        <v>458.7744167815746</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>38.28095199337144</v>
       </c>
       <c r="J30" t="n">
-        <v>98.39707907527364</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K30" t="n">
-        <v>396.5788619353575</v>
+        <v>476.4662234023154</v>
       </c>
       <c r="L30" t="n">
-        <v>596.0578725885409</v>
+        <v>675.9452340554988</v>
       </c>
       <c r="M30" t="n">
-        <v>836.6800008134874</v>
+        <v>916.5673622804452</v>
       </c>
       <c r="N30" t="n">
-        <v>1089.506181969937</v>
+        <v>1169.393543436895</v>
       </c>
       <c r="O30" t="n">
-        <v>1311.79372706887</v>
+        <v>1391.681088535827</v>
       </c>
       <c r="P30" t="n">
-        <v>1778.875785667739</v>
+        <v>1562.256548865342</v>
       </c>
       <c r="Q30" t="n">
         <v>1872.683689066185</v>
@@ -6569,16 +6569,16 @@
         <v>1887.200236763109</v>
       </c>
       <c r="S30" t="n">
-        <v>1887.200236763109</v>
+        <v>1801.470439084209</v>
       </c>
       <c r="T30" t="n">
-        <v>1732.688865280233</v>
+        <v>1646.959067601334</v>
       </c>
       <c r="U30" t="n">
-        <v>1535.416898145277</v>
+        <v>1586.029240899965</v>
       </c>
       <c r="V30" t="n">
-        <v>1321.705371138311</v>
+        <v>1372.317713892999</v>
       </c>
       <c r="W30" t="n">
         <v>1159.084545629327</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1086.925631592917</v>
+        <v>761.1853148083368</v>
       </c>
       <c r="C31" t="n">
-        <v>915.8322591546337</v>
+        <v>590.0919423700533</v>
       </c>
       <c r="D31" t="n">
-        <v>756.3376144775436</v>
+        <v>590.0919423700533</v>
       </c>
       <c r="E31" t="n">
-        <v>595.4267993458632</v>
+        <v>429.1811272383728</v>
       </c>
       <c r="F31" t="n">
-        <v>430.7956734564545</v>
+        <v>264.550001348964</v>
       </c>
       <c r="G31" t="n">
         <v>264.550001348964</v>
@@ -6624,10 +6624,10 @@
         <v>121.4466158487821</v>
       </c>
       <c r="K31" t="n">
-        <v>184.1258978099418</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L31" t="n">
-        <v>590.4247583031554</v>
+        <v>611.7819811884033</v>
       </c>
       <c r="M31" t="n">
         <v>710.4398172179128</v>
@@ -6645,28 +6645,28 @@
         <v>1887.200236763109</v>
       </c>
       <c r="R31" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="S31" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="T31" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="U31" t="n">
-        <v>1847.103336716821</v>
+        <v>1777.220285111492</v>
       </c>
       <c r="V31" t="n">
-        <v>1847.103336716821</v>
+        <v>1503.334540051014</v>
       </c>
       <c r="W31" t="n">
-        <v>1737.704898738513</v>
+        <v>1224.264875559889</v>
       </c>
       <c r="X31" t="n">
-        <v>1499.361036598197</v>
+        <v>985.9210134195721</v>
       </c>
       <c r="Y31" t="n">
-        <v>1274.625337986962</v>
+        <v>761.1853148083368</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>752.958983403711</v>
+        <v>684.3195305214499</v>
       </c>
       <c r="C32" t="n">
-        <v>752.958983403711</v>
+        <v>684.3195305214499</v>
       </c>
       <c r="D32" t="n">
-        <v>348.4950534967716</v>
+        <v>684.3195305214499</v>
       </c>
       <c r="E32" t="n">
-        <v>348.4950534967716</v>
+        <v>684.3195305214499</v>
       </c>
       <c r="F32" t="n">
-        <v>348.4950534967716</v>
+        <v>263.2891184751375</v>
       </c>
       <c r="G32" t="n">
-        <v>37.74400473526219</v>
+        <v>263.2891184751375</v>
       </c>
       <c r="H32" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I32" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J32" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987902</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L32" t="n">
-        <v>594.3775951131295</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655639</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N32" t="n">
         <v>1187.216805582613</v>
@@ -6718,7 +6718,7 @@
         <v>1464.838169622266</v>
       </c>
       <c r="P32" t="n">
-        <v>1687.808675484973</v>
+        <v>1687.808675484972</v>
       </c>
       <c r="Q32" t="n">
         <v>1835.740277181654</v>
@@ -6730,22 +6730,22 @@
         <v>1887.200236763109</v>
       </c>
       <c r="T32" t="n">
-        <v>1887.200236763109</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U32" t="n">
-        <v>1887.200236763109</v>
+        <v>1417.917386049801</v>
       </c>
       <c r="V32" t="n">
-        <v>1537.36268209959</v>
+        <v>1068.079831386281</v>
       </c>
       <c r="W32" t="n">
-        <v>1153.602381234758</v>
+        <v>684.3195305214499</v>
       </c>
       <c r="X32" t="n">
-        <v>752.958983403711</v>
+        <v>684.3195305214499</v>
       </c>
       <c r="Y32" t="n">
-        <v>752.958983403711</v>
+        <v>684.3195305214499</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>683.0535714964635</v>
+        <v>546.711431062875</v>
       </c>
       <c r="C33" t="n">
-        <v>549.0585002454092</v>
+        <v>412.7163598118207</v>
       </c>
       <c r="D33" t="n">
-        <v>432.1613424648016</v>
+        <v>295.8192020312131</v>
       </c>
       <c r="E33" t="n">
-        <v>311.6685264571296</v>
+        <v>175.3263860235411</v>
       </c>
       <c r="F33" t="n">
-        <v>202.7086466396342</v>
+        <v>66.3665062060457</v>
       </c>
       <c r="G33" t="n">
-        <v>96.91695860170566</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="H33" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I33" t="n">
-        <v>57.84875584306884</v>
+        <v>38.28095199337143</v>
       </c>
       <c r="J33" t="n">
-        <v>117.964882924971</v>
+        <v>98.39707907527364</v>
       </c>
       <c r="K33" t="n">
-        <v>252.3656232773795</v>
+        <v>319.8113050042889</v>
       </c>
       <c r="L33" t="n">
-        <v>596.0578725885409</v>
+        <v>519.2903156574723</v>
       </c>
       <c r="M33" t="n">
-        <v>836.6800008134874</v>
+        <v>759.9124438824188</v>
       </c>
       <c r="N33" t="n">
-        <v>1089.506181969937</v>
+        <v>1012.738625038869</v>
       </c>
       <c r="O33" t="n">
-        <v>1311.79372706887</v>
+        <v>1235.026170137801</v>
       </c>
       <c r="P33" t="n">
-        <v>1778.875785667739</v>
+        <v>1405.601630467316</v>
       </c>
       <c r="Q33" t="n">
         <v>1872.683689066185</v>
@@ -6806,25 +6806,25 @@
         <v>1887.200236763109</v>
       </c>
       <c r="S33" t="n">
-        <v>1887.200236763109</v>
+        <v>1801.470439084209</v>
       </c>
       <c r="T33" t="n">
-        <v>1732.688865280233</v>
+        <v>1646.959067601333</v>
       </c>
       <c r="U33" t="n">
-        <v>1535.416898145277</v>
+        <v>1449.687100466376</v>
       </c>
       <c r="V33" t="n">
-        <v>1321.705371138311</v>
+        <v>1235.97557345941</v>
       </c>
       <c r="W33" t="n">
-        <v>1108.472202874639</v>
+        <v>1022.742405195739</v>
       </c>
       <c r="X33" t="n">
-        <v>932.1462210135319</v>
+        <v>846.4164233346316</v>
       </c>
       <c r="Y33" t="n">
-        <v>823.3566041320502</v>
+        <v>687.0144636984617</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>197.2386494123522</v>
+        <v>748.3721484115907</v>
       </c>
       <c r="C34" t="n">
-        <v>197.2386494123522</v>
+        <v>577.2787759733072</v>
       </c>
       <c r="D34" t="n">
-        <v>37.74400473526219</v>
+        <v>417.7841312962173</v>
       </c>
       <c r="E34" t="n">
-        <v>37.74400473526219</v>
+        <v>256.8733161645367</v>
       </c>
       <c r="F34" t="n">
-        <v>37.74400473526219</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G34" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="H34" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I34" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="J34" t="n">
-        <v>56.44525221744567</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K34" t="n">
-        <v>121.4142546540225</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L34" t="n">
-        <v>527.7131151472361</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M34" t="n">
-        <v>971.337300691031</v>
+        <v>1240.329137432665</v>
       </c>
       <c r="N34" t="n">
-        <v>1402.865873330359</v>
+        <v>1671.857710071993</v>
       </c>
       <c r="O34" t="n">
-        <v>1801.612894797478</v>
+        <v>1755.529972120371</v>
       </c>
       <c r="P34" t="n">
-        <v>1865.488871500338</v>
+        <v>1819.405948823231</v>
       </c>
       <c r="Q34" t="n">
         <v>1887.200236763109</v>
       </c>
       <c r="R34" t="n">
-        <v>1887.200236763109</v>
+        <v>1847.10333671682</v>
       </c>
       <c r="S34" t="n">
-        <v>1887.200236763109</v>
+        <v>1678.221080048313</v>
       </c>
       <c r="T34" t="n">
-        <v>1683.716670710684</v>
+        <v>1678.221080048313</v>
       </c>
       <c r="U34" t="n">
-        <v>1400.973326109552</v>
+        <v>1678.221080048313</v>
       </c>
       <c r="V34" t="n">
-        <v>1127.087581049074</v>
+        <v>1678.221080048313</v>
       </c>
       <c r="W34" t="n">
-        <v>848.0179165579484</v>
+        <v>1399.151415557187</v>
       </c>
       <c r="X34" t="n">
-        <v>609.6740544176319</v>
+        <v>1160.80755341687</v>
       </c>
       <c r="Y34" t="n">
-        <v>384.9383558063965</v>
+        <v>936.0718548056351</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1277.578562171617</v>
+        <v>863.9341124077259</v>
       </c>
       <c r="C35" t="n">
-        <v>1277.578562171617</v>
+        <v>453.809521720996</v>
       </c>
       <c r="D35" t="n">
-        <v>873.114632264678</v>
+        <v>453.809521720996</v>
       </c>
       <c r="E35" t="n">
-        <v>458.7744167815746</v>
+        <v>453.809521720996</v>
       </c>
       <c r="F35" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G35" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="H35" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I35" t="n">
         <v>37.74400473526217</v>
@@ -6943,10 +6943,10 @@
         <v>342.4771847987902</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131295</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655639</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N35" t="n">
         <v>1187.216805582613</v>
@@ -6955,7 +6955,7 @@
         <v>1464.838169622266</v>
       </c>
       <c r="P35" t="n">
-        <v>1687.808675484972</v>
+        <v>1687.808675484973</v>
       </c>
       <c r="Q35" t="n">
         <v>1835.740277181654</v>
@@ -6967,22 +6967,22 @@
         <v>1887.200236763109</v>
       </c>
       <c r="T35" t="n">
-        <v>1887.200236763109</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U35" t="n">
-        <v>1687.799741836107</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V35" t="n">
-        <v>1687.799741836107</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="W35" t="n">
-        <v>1687.799741836107</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.799741836107</v>
+        <v>1274.155292072215</v>
       </c>
       <c r="Y35" t="n">
-        <v>1687.799741836107</v>
+        <v>1274.155292072215</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>546.7114310628755</v>
+        <v>683.0535714964635</v>
       </c>
       <c r="C36" t="n">
-        <v>412.7163598118212</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="D36" t="n">
-        <v>295.8192020312136</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E36" t="n">
-        <v>175.3263860235416</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F36" t="n">
-        <v>66.36650620604615</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G36" t="n">
-        <v>37.74400473526219</v>
+        <v>96.91695860170566</v>
       </c>
       <c r="H36" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I36" t="n">
-        <v>57.84875584306884</v>
+        <v>57.84875584306883</v>
       </c>
       <c r="J36" t="n">
         <v>361.6332868996043</v>
       </c>
       <c r="K36" t="n">
-        <v>496.0340272520128</v>
+        <v>605.1157437277311</v>
       </c>
       <c r="L36" t="n">
-        <v>695.5130379051961</v>
+        <v>804.5947543809145</v>
       </c>
       <c r="M36" t="n">
-        <v>936.1351661301426</v>
+        <v>1045.216882605861</v>
       </c>
       <c r="N36" t="n">
-        <v>1188.961347286592</v>
+        <v>1298.043063762311</v>
       </c>
       <c r="O36" t="n">
-        <v>1411.248892385525</v>
+        <v>1520.330608861243</v>
       </c>
       <c r="P36" t="n">
-        <v>1581.824352715039</v>
+        <v>1690.906069190758</v>
       </c>
       <c r="Q36" t="n">
         <v>1784.713972589204</v>
@@ -7046,22 +7046,22 @@
         <v>1801.470439084209</v>
       </c>
       <c r="T36" t="n">
-        <v>1646.959067601334</v>
+        <v>1646.959067601333</v>
       </c>
       <c r="U36" t="n">
-        <v>1449.687100466377</v>
+        <v>1449.687100466376</v>
       </c>
       <c r="V36" t="n">
-        <v>1235.97557345941</v>
+        <v>1372.317713892999</v>
       </c>
       <c r="W36" t="n">
-        <v>1022.742405195739</v>
+        <v>1159.084545629327</v>
       </c>
       <c r="X36" t="n">
-        <v>846.4164233346321</v>
+        <v>982.7585637682201</v>
       </c>
       <c r="Y36" t="n">
-        <v>687.0144636984621</v>
+        <v>823.3566041320502</v>
       </c>
     </row>
     <row r="37">
@@ -7071,58 +7071,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>399.255211587251</v>
+        <v>284.7862262833088</v>
       </c>
       <c r="C37" t="n">
-        <v>399.255211587251</v>
+        <v>284.7862262833088</v>
       </c>
       <c r="D37" t="n">
-        <v>399.255211587251</v>
+        <v>284.7862262833088</v>
       </c>
       <c r="E37" t="n">
-        <v>399.255211587251</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="F37" t="n">
-        <v>264.550001348964</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="G37" t="n">
-        <v>264.550001348964</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="H37" t="n">
-        <v>123.8754111516284</v>
+        <v>123.8754111516283</v>
       </c>
       <c r="I37" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="J37" t="n">
-        <v>58.73497269286278</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K37" t="n">
-        <v>121.4142546540225</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L37" t="n">
-        <v>527.7131151472361</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M37" t="n">
-        <v>971.337300691031</v>
+        <v>1240.329137432665</v>
       </c>
       <c r="N37" t="n">
-        <v>1402.865873330359</v>
+        <v>1339.823408624407</v>
       </c>
       <c r="O37" t="n">
-        <v>1801.612894797478</v>
+        <v>1423.495670672786</v>
       </c>
       <c r="P37" t="n">
-        <v>1865.488871500338</v>
+        <v>1739.214911294501</v>
       </c>
       <c r="Q37" t="n">
         <v>1887.200236763109</v>
       </c>
       <c r="R37" t="n">
-        <v>1847.103336716821</v>
+        <v>1847.10333671682</v>
       </c>
       <c r="S37" t="n">
-        <v>1847.103336716821</v>
+        <v>1847.10333671682</v>
       </c>
       <c r="T37" t="n">
         <v>1611.847487825105</v>
@@ -7131,16 +7131,16 @@
         <v>1329.104143223973</v>
       </c>
       <c r="V37" t="n">
-        <v>1329.104143223973</v>
+        <v>1055.218398163495</v>
       </c>
       <c r="W37" t="n">
-        <v>1050.034478732847</v>
+        <v>776.148733672369</v>
       </c>
       <c r="X37" t="n">
-        <v>811.6906165925307</v>
+        <v>537.8048715320524</v>
       </c>
       <c r="Y37" t="n">
-        <v>586.9549179812954</v>
+        <v>313.0691729208171</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.2383466885142</v>
+        <v>873.114632264678</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2383466885142</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D38" t="n">
-        <v>458.7744167815746</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E38" t="n">
         <v>458.7744167815746</v>
       </c>
       <c r="F38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="G38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="H38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I38" t="n">
         <v>37.74400473526217</v>
@@ -7192,7 +7192,7 @@
         <v>1464.838169622266</v>
       </c>
       <c r="P38" t="n">
-        <v>1687.808675484973</v>
+        <v>1687.808675484972</v>
       </c>
       <c r="Q38" t="n">
         <v>1835.740277181654</v>
@@ -7204,22 +7204,22 @@
         <v>1802.959711252747</v>
       </c>
       <c r="T38" t="n">
-        <v>1802.959711252747</v>
+        <v>1590.558164392901</v>
       </c>
       <c r="U38" t="n">
-        <v>1546.078407399285</v>
+        <v>1333.676860539439</v>
       </c>
       <c r="V38" t="n">
-        <v>1196.240852735766</v>
+        <v>983.8393058759193</v>
       </c>
       <c r="W38" t="n">
-        <v>1196.240852735766</v>
+        <v>873.114632264678</v>
       </c>
       <c r="X38" t="n">
-        <v>1196.240852735766</v>
+        <v>873.114632264678</v>
       </c>
       <c r="Y38" t="n">
-        <v>863.2383466885142</v>
+        <v>873.114632264678</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>546.7114310628755</v>
+        <v>546.711431062875</v>
       </c>
       <c r="C39" t="n">
-        <v>412.7163598118212</v>
+        <v>412.7163598118207</v>
       </c>
       <c r="D39" t="n">
-        <v>295.8192020312136</v>
+        <v>295.8192020312131</v>
       </c>
       <c r="E39" t="n">
-        <v>175.3263860235416</v>
+        <v>175.3263860235411</v>
       </c>
       <c r="F39" t="n">
-        <v>66.36650620604615</v>
+        <v>66.3665062060457</v>
       </c>
       <c r="G39" t="n">
-        <v>37.74400473526219</v>
+        <v>66.3665062060457</v>
       </c>
       <c r="H39" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28095199337144</v>
+        <v>57.84875584306883</v>
       </c>
       <c r="J39" t="n">
-        <v>185.4105646518806</v>
+        <v>361.6332868996043</v>
       </c>
       <c r="K39" t="n">
-        <v>319.8113050042891</v>
+        <v>496.0340272520128</v>
       </c>
       <c r="L39" t="n">
-        <v>519.2903156574725</v>
+        <v>695.5130379051961</v>
       </c>
       <c r="M39" t="n">
-        <v>759.912443882419</v>
+        <v>936.1351661301426</v>
       </c>
       <c r="N39" t="n">
-        <v>1012.738625038869</v>
+        <v>1188.961347286592</v>
       </c>
       <c r="O39" t="n">
-        <v>1235.026170137801</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P39" t="n">
-        <v>1405.601630467316</v>
+        <v>1581.824352715039</v>
       </c>
       <c r="Q39" t="n">
-        <v>1872.683689066185</v>
+        <v>1784.713972589204</v>
       </c>
       <c r="R39" t="n">
         <v>1887.200236763109</v>
@@ -7283,10 +7283,10 @@
         <v>1801.470439084209</v>
       </c>
       <c r="T39" t="n">
-        <v>1646.959067601334</v>
+        <v>1646.959067601333</v>
       </c>
       <c r="U39" t="n">
-        <v>1449.687100466377</v>
+        <v>1449.687100466376</v>
       </c>
       <c r="V39" t="n">
         <v>1235.97557345941</v>
@@ -7295,10 +7295,10 @@
         <v>1022.742405195739</v>
       </c>
       <c r="X39" t="n">
-        <v>846.4164233346321</v>
+        <v>846.4164233346316</v>
       </c>
       <c r="Y39" t="n">
-        <v>687.0144636984621</v>
+        <v>687.0144636984617</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>722.095456234672</v>
+        <v>747.7864815501852</v>
       </c>
       <c r="C40" t="n">
-        <v>551.0020837963885</v>
+        <v>576.6931091119017</v>
       </c>
       <c r="D40" t="n">
-        <v>391.5074391192986</v>
+        <v>417.1984644348117</v>
       </c>
       <c r="E40" t="n">
-        <v>391.5074391192986</v>
+        <v>256.2876493031312</v>
       </c>
       <c r="F40" t="n">
-        <v>226.8763132298898</v>
+        <v>256.2876493031312</v>
       </c>
       <c r="G40" t="n">
-        <v>60.63064112239937</v>
+        <v>256.2876493031312</v>
       </c>
       <c r="H40" t="n">
-        <v>37.74400473526219</v>
+        <v>115.6130591057955</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526218</v>
       </c>
       <c r="J40" t="n">
-        <v>56.44525221744567</v>
+        <v>58.73497269286255</v>
       </c>
       <c r="K40" t="n">
-        <v>325.4047277643195</v>
+        <v>121.4142546540223</v>
       </c>
       <c r="L40" t="n">
-        <v>731.7035882575331</v>
+        <v>527.7131151472358</v>
       </c>
       <c r="M40" t="n">
-        <v>830.3614242870426</v>
+        <v>971.3373006910308</v>
       </c>
       <c r="N40" t="n">
-        <v>1141.968389857241</v>
+        <v>1402.865873330359</v>
       </c>
       <c r="O40" t="n">
-        <v>1540.71541132436</v>
+        <v>1801.612894797478</v>
       </c>
       <c r="P40" t="n">
-        <v>1865.488871500339</v>
+        <v>1865.488871500338</v>
       </c>
       <c r="Q40" t="n">
         <v>1887.200236763109</v>
       </c>
       <c r="R40" t="n">
-        <v>1887.200236763109</v>
+        <v>1847.10333671682</v>
       </c>
       <c r="S40" t="n">
-        <v>1887.200236763109</v>
+        <v>1678.221080048313</v>
       </c>
       <c r="T40" t="n">
-        <v>1651.944387871394</v>
+        <v>1442.965231156597</v>
       </c>
       <c r="U40" t="n">
-        <v>1651.944387871394</v>
+        <v>1160.221886555465</v>
       </c>
       <c r="V40" t="n">
-        <v>1651.944387871394</v>
+        <v>1160.221886555465</v>
       </c>
       <c r="W40" t="n">
-        <v>1372.874723380268</v>
+        <v>1160.221886555465</v>
       </c>
       <c r="X40" t="n">
-        <v>1134.530861239952</v>
+        <v>1160.221886555465</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.7951626287164</v>
+        <v>935.4861879442295</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>447.8685954219921</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="C41" t="n">
-        <v>37.74400473526218</v>
+        <v>1277.578562171617</v>
       </c>
       <c r="D41" t="n">
-        <v>37.74400473526218</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E41" t="n">
-        <v>37.74400473526218</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F41" t="n">
-        <v>37.74400473526218</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G41" t="n">
-        <v>37.74400473526218</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H41" t="n">
-        <v>37.74400473526218</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I41" t="n">
-        <v>37.74400473526217</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J41" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K41" t="n">
         <v>342.4771847987902</v>
@@ -7420,7 +7420,7 @@
         <v>594.3775951131295</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655637</v>
+        <v>887.4914597655639</v>
       </c>
       <c r="N41" t="n">
         <v>1187.216805582613</v>
@@ -7429,7 +7429,7 @@
         <v>1464.838169622266</v>
       </c>
       <c r="P41" t="n">
-        <v>1687.808675484972</v>
+        <v>1687.808675484973</v>
       </c>
       <c r="Q41" t="n">
         <v>1835.740277181654</v>
@@ -7441,22 +7441,22 @@
         <v>1887.200236763109</v>
       </c>
       <c r="T41" t="n">
-        <v>1887.200236763109</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U41" t="n">
-        <v>1887.200236763109</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V41" t="n">
-        <v>1887.200236763109</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="W41" t="n">
-        <v>1659.669845969439</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="X41" t="n">
-        <v>1259.026448138392</v>
+        <v>1324.961135239744</v>
       </c>
       <c r="Y41" t="n">
-        <v>858.0897750864815</v>
+        <v>1324.961135239744</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>683.0535714964635</v>
+        <v>546.7114310628755</v>
       </c>
       <c r="C42" t="n">
-        <v>549.0585002454092</v>
+        <v>412.7163598118212</v>
       </c>
       <c r="D42" t="n">
-        <v>432.1613424648016</v>
+        <v>295.8192020312136</v>
       </c>
       <c r="E42" t="n">
-        <v>311.6685264571296</v>
+        <v>175.3263860235416</v>
       </c>
       <c r="F42" t="n">
-        <v>202.7086466396342</v>
+        <v>66.36650620604615</v>
       </c>
       <c r="G42" t="n">
-        <v>96.91695860170566</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H42" t="n">
-        <v>37.74400473526218</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28095199337143</v>
+        <v>38.28095199337144</v>
       </c>
       <c r="J42" t="n">
-        <v>98.39707907527364</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K42" t="n">
-        <v>232.7978194276821</v>
+        <v>476.4662234023154</v>
       </c>
       <c r="L42" t="n">
-        <v>432.2768300808656</v>
+        <v>675.9452340554988</v>
       </c>
       <c r="M42" t="n">
-        <v>672.898958305812</v>
+        <v>916.5673622804452</v>
       </c>
       <c r="N42" t="n">
-        <v>925.7251394622618</v>
+        <v>1169.393543436895</v>
       </c>
       <c r="O42" t="n">
-        <v>1148.012684561194</v>
+        <v>1391.681088535827</v>
       </c>
       <c r="P42" t="n">
-        <v>1318.588144890709</v>
+        <v>1562.256548865342</v>
       </c>
       <c r="Q42" t="n">
-        <v>1784.713972589204</v>
+        <v>1872.683689066185</v>
       </c>
       <c r="R42" t="n">
         <v>1887.200236763109</v>
@@ -7520,10 +7520,10 @@
         <v>1801.470439084209</v>
       </c>
       <c r="T42" t="n">
-        <v>1646.959067601333</v>
+        <v>1646.959067601334</v>
       </c>
       <c r="U42" t="n">
-        <v>1449.687100466376</v>
+        <v>1449.687100466377</v>
       </c>
       <c r="V42" t="n">
         <v>1235.97557345941</v>
@@ -7532,10 +7532,10 @@
         <v>1022.742405195739</v>
       </c>
       <c r="X42" t="n">
-        <v>982.7585637682201</v>
+        <v>846.4164233346321</v>
       </c>
       <c r="Y42" t="n">
-        <v>823.3566041320502</v>
+        <v>687.0144636984621</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.7656382649816</v>
+        <v>693.8739628717249</v>
       </c>
       <c r="C43" t="n">
-        <v>785.6722658266981</v>
+        <v>522.7805904334414</v>
       </c>
       <c r="D43" t="n">
-        <v>626.1776211496081</v>
+        <v>363.2859457563515</v>
       </c>
       <c r="E43" t="n">
-        <v>465.2668060179275</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="F43" t="n">
-        <v>300.6356801285188</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G43" t="n">
-        <v>134.3900080210283</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H43" t="n">
-        <v>37.74400473526218</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I43" t="n">
-        <v>37.74400473526218</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J43" t="n">
-        <v>121.4466158487821</v>
+        <v>56.44525221744567</v>
       </c>
       <c r="K43" t="n">
-        <v>390.4060913956559</v>
+        <v>325.4047277643195</v>
       </c>
       <c r="L43" t="n">
-        <v>796.7049518888696</v>
+        <v>417.7244770225101</v>
       </c>
       <c r="M43" t="n">
-        <v>1231.274917878402</v>
+        <v>861.3486625663052</v>
       </c>
       <c r="N43" t="n">
-        <v>1330.769189070144</v>
+        <v>1292.877235205633</v>
       </c>
       <c r="O43" t="n">
-        <v>1414.441451118523</v>
+        <v>1675.338934591641</v>
       </c>
       <c r="P43" t="n">
         <v>1739.214911294501</v>
@@ -7599,22 +7599,22 @@
         <v>1887.200236763109</v>
       </c>
       <c r="T43" t="n">
-        <v>1651.944387871393</v>
+        <v>1662.938457538615</v>
       </c>
       <c r="U43" t="n">
-        <v>1369.201043270261</v>
+        <v>1380.195112937483</v>
       </c>
       <c r="V43" t="n">
-        <v>1369.201043270261</v>
+        <v>1106.309367877005</v>
       </c>
       <c r="W43" t="n">
-        <v>1369.201043270261</v>
+        <v>1106.309367877005</v>
       </c>
       <c r="X43" t="n">
-        <v>1369.201043270261</v>
+        <v>1106.309367877005</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.465344659026</v>
+        <v>881.5736692657692</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>748.3591666244624</v>
+        <v>583.1959080448721</v>
       </c>
       <c r="C44" t="n">
-        <v>748.3591666244624</v>
+        <v>583.1959080448721</v>
       </c>
       <c r="D44" t="n">
-        <v>748.3591666244624</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="E44" t="n">
-        <v>748.3591666244624</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F44" t="n">
-        <v>327.3287545781499</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G44" t="n">
-        <v>327.3287545781499</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606873</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746555</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492899</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752964</v>
+        <v>342.4771847987902</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879078</v>
+        <v>594.3775951131295</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501306</v>
+        <v>887.4914597655639</v>
       </c>
       <c r="N44" t="n">
-        <v>1272.218803576257</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.017893256777</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P44" t="n">
-        <v>1806.502667397418</v>
+        <v>1687.808675484972</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463273</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R44" t="n">
-        <v>2024.321847303436</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="S44" t="n">
-        <v>1942.589711028803</v>
+        <v>1802.959711252747</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.670028080286</v>
+        <v>1590.558164392901</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.79753042052</v>
+        <v>1333.676860539439</v>
       </c>
       <c r="V44" t="n">
-        <v>1123.959975757001</v>
+        <v>983.8393058759195</v>
       </c>
       <c r="W44" t="n">
-        <v>748.3591666244624</v>
+        <v>983.8393058759195</v>
       </c>
       <c r="X44" t="n">
-        <v>748.3591666244624</v>
+        <v>583.1959080448721</v>
       </c>
       <c r="Y44" t="n">
-        <v>748.3591666244624</v>
+        <v>583.1959080448721</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090094</v>
+        <v>683.0535714964635</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579551</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773475</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696755</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521801</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692761</v>
+        <v>96.91695860170566</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606873</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I45" t="n">
-        <v>43.01083102505507</v>
+        <v>38.28095199337144</v>
       </c>
       <c r="J45" t="n">
-        <v>352.2490680648407</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K45" t="n">
-        <v>495.9710605961322</v>
+        <v>693.0854602047125</v>
       </c>
       <c r="L45" t="n">
-        <v>707.9836451177896</v>
+        <v>892.5644708578959</v>
       </c>
       <c r="M45" t="n">
-        <v>963.2318628767576</v>
+        <v>1133.186599082842</v>
       </c>
       <c r="N45" t="n">
-        <v>1231.071242635907</v>
+        <v>1386.012780239292</v>
       </c>
       <c r="O45" t="n">
-        <v>1467.092931389886</v>
+        <v>1608.300325338225</v>
       </c>
       <c r="P45" t="n">
-        <v>1648.691252826069</v>
+        <v>1778.875785667739</v>
       </c>
       <c r="Q45" t="n">
-        <v>1918.251596225539</v>
+        <v>1872.683689066185</v>
       </c>
       <c r="R45" t="n">
-        <v>2024.321847303436</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="S45" t="n">
-        <v>1939.686028373152</v>
+        <v>1801.470439084209</v>
       </c>
       <c r="T45" t="n">
-        <v>1785.412051570318</v>
+        <v>1783.301208034922</v>
       </c>
       <c r="U45" t="n">
-        <v>1588.143959212511</v>
+        <v>1586.029240899965</v>
       </c>
       <c r="V45" t="n">
-        <v>1374.432432205545</v>
+        <v>1372.317713892999</v>
       </c>
       <c r="W45" t="n">
-        <v>1161.199263941873</v>
+        <v>1159.084545629327</v>
       </c>
       <c r="X45" t="n">
-        <v>984.873282080766</v>
+        <v>982.7585637682201</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.471322444596</v>
+        <v>823.3566041320502</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1003.048274546781</v>
+        <v>615.663024280208</v>
       </c>
       <c r="C46" t="n">
-        <v>831.9549021084979</v>
+        <v>615.663024280208</v>
       </c>
       <c r="D46" t="n">
-        <v>672.4602574314079</v>
+        <v>615.663024280208</v>
       </c>
       <c r="E46" t="n">
-        <v>511.5494422997273</v>
+        <v>454.7522091485275</v>
       </c>
       <c r="F46" t="n">
-        <v>346.9183164103185</v>
+        <v>290.1210832591188</v>
       </c>
       <c r="G46" t="n">
-        <v>180.7220212444305</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606873</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606873</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J46" t="n">
-        <v>62.60916429909252</v>
+        <v>111.8166004547676</v>
       </c>
       <c r="K46" t="n">
-        <v>130.910988725128</v>
+        <v>174.4958824159273</v>
       </c>
       <c r="L46" t="n">
-        <v>544.4047677997642</v>
+        <v>266.8156316741178</v>
       </c>
       <c r="M46" t="n">
-        <v>995.6149861856447</v>
+        <v>710.4398172179128</v>
       </c>
       <c r="N46" t="n">
-        <v>1434.549212761691</v>
+        <v>1141.968389857241</v>
       </c>
       <c r="O46" t="n">
-        <v>1840.136554279193</v>
+        <v>1540.71541132436</v>
       </c>
       <c r="P46" t="n">
-        <v>1998.558115949588</v>
+        <v>1865.488871500338</v>
       </c>
       <c r="Q46" t="n">
-        <v>2024.321847303436</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="R46" t="n">
-        <v>2024.321847303436</v>
+        <v>1887.200236763109</v>
       </c>
       <c r="S46" t="n">
-        <v>1856.300096062672</v>
+        <v>1819.397700977408</v>
       </c>
       <c r="T46" t="n">
-        <v>1653.827541692378</v>
+        <v>1819.397700977408</v>
       </c>
       <c r="U46" t="n">
-        <v>1653.827541692378</v>
+        <v>1819.397700977408</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.827541692378</v>
+        <v>1545.51195591693</v>
       </c>
       <c r="W46" t="n">
-        <v>1653.827541692378</v>
+        <v>1266.442291425804</v>
       </c>
       <c r="X46" t="n">
-        <v>1415.483679552061</v>
+        <v>1028.098429285488</v>
       </c>
       <c r="Y46" t="n">
-        <v>1190.747980940826</v>
+        <v>803.3627306742524</v>
       </c>
     </row>
   </sheetData>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>34.81979492599199</v>
+        <v>24.83079024283865</v>
       </c>
       <c r="K11" t="n">
-        <v>31.42917993820346</v>
+        <v>31.44066467312648</v>
       </c>
       <c r="L11" t="n">
-        <v>23.89450156601852</v>
+        <v>20.30415414350707</v>
       </c>
       <c r="M11" t="n">
-        <v>13.63155801534687</v>
+        <v>4.26620936687349</v>
       </c>
       <c r="N11" t="n">
-        <v>11.96466381132231</v>
+        <v>5.94690836701335</v>
       </c>
       <c r="O11" t="n">
-        <v>16.75322690579426</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>28.41253737042842</v>
+        <v>11.48820729554303</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.04366499467729</v>
+        <v>28.33419793945851</v>
       </c>
       <c r="R11" t="n">
-        <v>58.81494431611752</v>
+        <v>51.42194217554837</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>28.43664143721497</v>
+        <v>22.48725867946165</v>
       </c>
       <c r="K12" t="n">
-        <v>16.63032124124894</v>
+        <v>6.461878504504874</v>
       </c>
       <c r="L12" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>7.908981644977509</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.70843422154195</v>
+        <v>17.67023563365593</v>
       </c>
       <c r="R12" t="n">
-        <v>43.92968946019</v>
+        <v>40.01996092768195</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.04597107107902</v>
+        <v>48.29593289386566</v>
       </c>
       <c r="K13" t="n">
-        <v>28.6078221063498</v>
+        <v>22.47425764614524</v>
       </c>
       <c r="L13" t="n">
-        <v>24.37397299861713</v>
+        <v>16.525122201889</v>
       </c>
       <c r="M13" t="n">
-        <v>24.3660030835062</v>
+        <v>16.09049040844303</v>
       </c>
       <c r="N13" t="n">
-        <v>20.57219157480551</v>
+        <v>26.87051543184821</v>
       </c>
       <c r="O13" t="n">
-        <v>27.31164863678001</v>
+        <v>19.84962514481909</v>
       </c>
       <c r="P13" t="n">
-        <v>31.16791274233458</v>
+        <v>39.76527591320019</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.31950182682881</v>
+        <v>54.88123740267229</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>24.83079024283865</v>
+        <v>18.48294167697897</v>
       </c>
       <c r="K14" t="n">
-        <v>16.45825130049549</v>
+        <v>35.11908186364826</v>
       </c>
       <c r="L14" t="n">
-        <v>5.321740770876076</v>
+        <v>18.67858243864866</v>
       </c>
       <c r="M14" t="n">
-        <v>7.948196415495232</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5.341558331755536</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>11.90577635926708</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>11.48820729554303</v>
+        <v>0.7330732454824584</v>
       </c>
       <c r="Q14" t="n">
-        <v>28.33419793945851</v>
+        <v>20.2575401764107</v>
       </c>
       <c r="R14" t="n">
-        <v>66.40435554817937</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>22.48725867946165</v>
+        <v>18.70652356075183</v>
       </c>
       <c r="K15" t="n">
-        <v>6.461878504504874</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>17.67023563365593</v>
+        <v>12.56209233042347</v>
       </c>
       <c r="R15" t="n">
-        <v>40.01996092768195</v>
+        <v>37.53539260028506</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>48.29593289386566</v>
+        <v>30.94160780737001</v>
       </c>
       <c r="K16" t="n">
-        <v>37.45667101877622</v>
+        <v>18.57647807777823</v>
       </c>
       <c r="L16" t="n">
-        <v>30.90218553926218</v>
+        <v>11.53730631291606</v>
       </c>
       <c r="M16" t="n">
-        <v>16.09049040844303</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N16" t="n">
-        <v>12.49345209447503</v>
+        <v>35.53415577272188</v>
       </c>
       <c r="O16" t="n">
-        <v>34.83203851745008</v>
+        <v>43.28224171393852</v>
       </c>
       <c r="P16" t="n">
-        <v>24.7828625405692</v>
+        <v>48.89987796347702</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.8988240300413</v>
+        <v>64.12579779982163</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>31.21809620174883</v>
+        <v>31.21809620174886</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>6.22858451822664</v>
+        <v>6.228584518226661</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.33532272952759</v>
+        <v>29.33532272952761</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.11334984944293</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>81.66010830944114</v>
+        <v>81.66010830944106</v>
       </c>
       <c r="L19" t="n">
-        <v>71.02338042504297</v>
+        <v>71.0233804250429</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>13.68231415467528</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>63.56048903936129</v>
+        <v>7.333581672173025</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.7657092257565</v>
+        <v>103.7657092257564</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.21809620174884</v>
+        <v>31.21809620174885</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>6.228584518226647</v>
+        <v>6.228584518226654</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.11334984944293</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>81.66010830944114</v>
+        <v>81.66010830944111</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>69.42275263851192</v>
+        <v>69.42275263851189</v>
       </c>
       <c r="N22" t="n">
-        <v>57.82753515371937</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>7.333581672173004</v>
+        <v>22.61652361337939</v>
       </c>
       <c r="Q22" t="n">
         <v>103.7657092257565</v>
@@ -9716,13 +9716,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>218.807309901411</v>
       </c>
       <c r="L24" t="n">
-        <v>76.5770970007012</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>299.5016144134898</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9804,13 +9804,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2.810283160322982</v>
+        <v>321.0676159065253</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>263.5328115890082</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0417356024859</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>247.2671853534718</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.03697581170553</v>
+        <v>197.9043670983794</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,19 +10035,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>180.9805897160495</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>335.3881832803894</v>
+        <v>21.04784903159791</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
         <v>263.5328115890082</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>165.4353964723994</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>299.5016144134898</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>218.8073099014113</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>130.3597379136937</v>
       </c>
       <c r="M31" t="n">
-        <v>21.57295240934133</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>87.89240967334018</v>
       </c>
       <c r="L33" t="n">
-        <v>145.6699380383616</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>299.5016144134898</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>377.0446012125489</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>2.312848965067786</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
@@ -10521,13 +10521,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>46.54840674455237</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>110.1835519956751</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1835519956755</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.312848965067786</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10755,16 +10755,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>254.3871352715708</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>87.89240967334038</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>377.044601212549</v>
+        <v>110.1835519956752</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.312848965067555</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>214.2552468469252</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>376.078711414191</v>
+        <v>218.8073099014116</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>339.3051817778004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>301.807512462252</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11378,7 +11378,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>218.8073099014112</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>170.0847972377573</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>55.93065478517361</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
@@ -11472,7 +11472,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>89.58839339659438</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>392.8268350812492</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23272,13 +23272,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1873416079885</v>
+        <v>404.0696490978407</v>
       </c>
       <c r="H11" t="n">
-        <v>303.153370424964</v>
+        <v>301.9480520054133</v>
       </c>
       <c r="I11" t="n">
-        <v>67.99853108690158</v>
+        <v>63.4611905894301</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.5904949947116</v>
+        <v>120.9085769197195</v>
       </c>
       <c r="T11" t="n">
-        <v>217.9985240592434</v>
+        <v>202.5009117234406</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4441786496245</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23323,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>381.654550480106</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>381.9448929487598</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.6774822426766</v>
+        <v>105.614511198214</v>
       </c>
       <c r="H12" t="n">
-        <v>67.69548664993043</v>
+        <v>67.08731893104213</v>
       </c>
       <c r="I12" t="n">
-        <v>12.18397769576295</v>
+        <v>10.01589568246907</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>102.4015191999815</v>
+        <v>101.2318596679688</v>
       </c>
       <c r="T12" t="n">
-        <v>156.7700756945035</v>
+        <v>156.5162581951128</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3613337192077</v>
+        <v>180.3747775147041</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>196.1184232084035</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>159.5803086698651</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>144.6114303411949</v>
       </c>
     </row>
     <row r="13">
@@ -23421,22 +23421,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>142.9172848576881</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>146.1051972817503</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3215982505335</v>
       </c>
       <c r="H13" t="n">
-        <v>146.3021152741505</v>
+        <v>145.8327392145199</v>
       </c>
       <c r="I13" t="n">
-        <v>109.062902574934</v>
+        <v>107.4752788476761</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.27006628211034</v>
+        <v>72.89630964516419</v>
       </c>
       <c r="S13" t="n">
-        <v>180.9814683209813</v>
+        <v>165.0790202793196</v>
       </c>
       <c r="T13" t="n">
-        <v>236.2837682760401</v>
+        <v>236.0581990040295</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9561865840728</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23484,7 +23484,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>207.5059282524919</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>392.8268350812492</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23506,16 +23506,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>388.6454978724599</v>
       </c>
       <c r="G14" t="n">
-        <v>404.0696490978407</v>
+        <v>403.9948574388665</v>
       </c>
       <c r="H14" t="n">
-        <v>301.9480520054133</v>
+        <v>301.182091927944</v>
       </c>
       <c r="I14" t="n">
-        <v>63.4611905894301</v>
+        <v>60.57778515682809</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9085769197195</v>
+        <v>91.02965193745602</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4833250960716</v>
+        <v>188.9813145555227</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4441786496245</v>
+        <v>254.4381953169066</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>321.5229825818587</v>
       </c>
       <c r="W14" t="n">
-        <v>364.9402844835521</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>381.654550480106</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>381.9448929487598</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.614511198214</v>
+        <v>105.5744941327544</v>
       </c>
       <c r="H15" t="n">
-        <v>67.08731893104213</v>
+        <v>38.52622827176631</v>
       </c>
       <c r="I15" t="n">
-        <v>10.01589568246907</v>
+        <v>8.638115139231887</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>88.03534996935548</v>
+        <v>100.4885602284008</v>
       </c>
       <c r="T15" t="n">
-        <v>141.5338448224818</v>
+        <v>128.1803512857699</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3571908873351</v>
+        <v>167.1799481322707</v>
       </c>
       <c r="V15" t="n">
-        <v>196.5919983642655</v>
+        <v>186.7582152018711</v>
       </c>
       <c r="W15" t="n">
-        <v>196.1184232084035</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -23664,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>149.7883049319013</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>150.3391848779025</v>
+        <v>165.2880492871125</v>
       </c>
       <c r="H16" t="n">
-        <v>130.8503258418889</v>
+        <v>145.5344584306495</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49286547504505</v>
+        <v>106.4663700204336</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>72.89630964516419</v>
+        <v>71.38782625352545</v>
       </c>
       <c r="S16" t="n">
-        <v>180.0614336519506</v>
+        <v>179.4767667166956</v>
       </c>
       <c r="T16" t="n">
-        <v>236.0581990040295</v>
+        <v>211.0986568980234</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9561865840728</v>
+        <v>251.7797465872241</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>242.9722775564838</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -23721,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>194.3137315717335</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>330.1711050654851</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23740,10 +23740,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>334.2489505259127</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>340.8722451234898</v>
       </c>
       <c r="G17" t="n">
         <v>403.7480150306399</v>
@@ -23752,7 +23752,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I17" t="n">
-        <v>51.06139321367293</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>113.5793406133823</v>
       </c>
       <c r="T17" t="n">
-        <v>216.0753719669003</v>
+        <v>149.1804944105821</v>
       </c>
       <c r="U17" t="n">
-        <v>187.5235703679302</v>
+        <v>254.4184479242485</v>
       </c>
       <c r="V17" t="n">
-        <v>270.3913163145245</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>303.9748350538235</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>320.6891010503774</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23816,22 +23816,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>48.83330864648319</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>117.8183079371867</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696096</v>
       </c>
       <c r="G18" t="n">
-        <v>105.4424218008434</v>
+        <v>29.49455899848388</v>
       </c>
       <c r="H18" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.090887922119276</v>
+        <v>4.090887922119286</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725504</v>
       </c>
       <c r="T18" t="n">
         <v>155.8226171592196</v>
@@ -23873,13 +23873,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>135.1529737786749</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>98.61485924013652</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>81.86007723744868</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.8748465277444</v>
+        <v>185.337059099716</v>
       </c>
       <c r="C19" t="n">
-        <v>93.43457591154106</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>92.40682942404543</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>87.03695182815505</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.1773242806354</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.4092273259303</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>177.547131831091</v>
+        <v>101.5992690287315</v>
       </c>
       <c r="T19" t="n">
         <v>235.4417556781015</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9483170948056</v>
+        <v>204.0004542924461</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>146.5404788227634</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>339.1284672235442</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>334.2489505259126</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -23986,7 +23986,7 @@
         <v>403.7480150306399</v>
       </c>
       <c r="H20" t="n">
-        <v>222.7062543123339</v>
+        <v>231.7592395583753</v>
       </c>
       <c r="I20" t="n">
         <v>51.06139321367294</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>113.5793406133823</v>
+        <v>37.63147781102273</v>
       </c>
       <c r="T20" t="n">
-        <v>216.0753719669003</v>
+        <v>140.1275091645408</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4184479242485</v>
+        <v>178.4705851218889</v>
       </c>
       <c r="V20" t="n">
-        <v>270.3913163145245</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24050,10 +24050,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>56.70725773618415</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>39.78032340044189</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
@@ -24062,13 +24062,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>38.54754424452509</v>
+        <v>105.4424218008434</v>
       </c>
       <c r="H21" t="n">
         <v>65.42529764590962</v>
       </c>
       <c r="I21" t="n">
-        <v>4.090887922119279</v>
+        <v>4.090887922119283</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725497</v>
       </c>
       <c r="T21" t="n">
         <v>155.8226171592196</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3458692164555</v>
+        <v>128.4509916601372</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>135.6265489345369</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>135.1529737786749</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>81.86007723744868</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.9278317737857</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.4092273259303</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S22" t="n">
         <v>177.547131831091</v>
       </c>
       <c r="T22" t="n">
-        <v>235.4417556781015</v>
+        <v>168.5468781217832</v>
       </c>
       <c r="U22" t="n">
         <v>204.0004542924461</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>195.1990248075137</v>
       </c>
       <c r="W22" t="n">
         <v>200.3311050438548</v>
@@ -24195,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.5404788227633</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>138.381253738241</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.39812025525839</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24271,10 +24271,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>258.562323977395</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24293,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>27.10843800993166</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>50.10621932714182</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.2700923522025</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
-        <v>27.33832401700488</v>
+        <v>152.1425413733392</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>381.9969761237122</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>402.4235511641288</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>83.39812025525839</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
-        <v>296.4059179047336</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24530,13 +24530,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>15.69083118165683</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>134.9787190292527</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.27009235220251</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>39.69593104582559</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>42.93730049447959</v>
+        <v>7.063612848040293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,16 +24685,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>131.9677654285545</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
         <v>285.0899515417858</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.39812025525839</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>307.3335487100252</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24809,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>134.9787190292521</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>50.10621932714113</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S31" t="n">
         <v>167.1934341018228</v>
@@ -24894,13 +24894,13 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9159111551209</v>
+        <v>171.0357590200202</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>167.9745142476901</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>94.78001289023447</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H32" t="n">
-        <v>285.0899515417858</v>
+        <v>61.80028893930927</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>83.39812025525839</v>
       </c>
       <c r="T32" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>76.39749470147353</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>50.10621932714137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>110.6300117019484</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>139.2678442953623</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>31.45456001089784</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.3387972741016</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>285.0899515417858</v>
@@ -25207,10 +25207,10 @@
         <v>83.39812025525839</v>
       </c>
       <c r="T35" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>56.90600083719539</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>76.39749470147309</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>134.9787190292527</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>157.8225921589708</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25320,16 +25320,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>29.62665649461059</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.5832153864156</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25396,10 +25396,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>270.3052709810542</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>67.25482533461167</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>76.39749470147309</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H39" t="n">
-        <v>58.58122432777904</v>
+        <v>30.24494787170336</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H40" t="n">
-        <v>116.6100742720965</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.2700923522025</v>
+        <v>8.179728525374529</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>359.1145974424173</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.4235511641288</v>
@@ -25681,22 +25681,22 @@
         <v>83.39812025525839</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>154.6676109704498</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>76.39749470147309</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>134.9787190292527</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H43" t="n">
-        <v>43.58830104245384</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I43" t="n">
         <v>85.2700923522025</v>
@@ -25839,13 +25839,13 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>10.88412897054891</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25870,19 +25870,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>262.845457495485</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>8.077896814970075</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>134.9787190292523</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.4979658673368</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>100.0689236739787</v>
       </c>
       <c r="T46" t="n">
-        <v>32.24659711322882</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>145410.6725453134</v>
+        <v>156892.4825241043</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>156892.4825241044</v>
+        <v>167411.2384347017</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>205990.3474861158</v>
+        <v>205990.3474861157</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>205990.3474861158</v>
+        <v>205990.3474861156</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>536934.8905808099</v>
+        <v>536934.8905808097</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>536934.8905808098</v>
+        <v>536934.8905808097</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>536934.8905808099</v>
+        <v>536934.8905808097</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>536934.8905808097</v>
+        <v>536934.8905808098</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>536934.8905808097</v>
+        <v>536934.8905808099</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>565145.4525232867</v>
+        <v>536934.8905808097</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36376.70456762834</v>
+        <v>36376.70456762835</v>
       </c>
       <c r="C2" t="n">
         <v>36376.70456762835</v>
@@ -26322,25 +26322,25 @@
         <v>36376.70456762835</v>
       </c>
       <c r="E2" t="n">
-        <v>37876.83530329079</v>
+        <v>41449.38315035222</v>
       </c>
       <c r="F2" t="n">
-        <v>41449.38315035222</v>
+        <v>44499.69525301668</v>
       </c>
       <c r="G2" t="n">
-        <v>55466.50139910736</v>
+        <v>55466.50139910731</v>
       </c>
       <c r="H2" t="n">
-        <v>55466.50139910733</v>
+        <v>55466.50139910731</v>
       </c>
       <c r="I2" t="n">
+        <v>143631.4738620318</v>
+      </c>
+      <c r="J2" t="n">
         <v>143631.4738620319</v>
       </c>
-      <c r="J2" t="n">
-        <v>143631.4738620318</v>
-      </c>
       <c r="K2" t="n">
-        <v>143631.4738620318</v>
+        <v>143631.4738620319</v>
       </c>
       <c r="L2" t="n">
         <v>143631.4738620319</v>
@@ -26355,7 +26355,7 @@
         <v>143631.4738620319</v>
       </c>
       <c r="P2" t="n">
-        <v>151118.1887321428</v>
+        <v>143631.4738620319</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>90662.29316279097</v>
+        <v>118656.1479706615</v>
       </c>
       <c r="F3" t="n">
-        <v>27433.92819971307</v>
+        <v>18485.68219951481</v>
       </c>
       <c r="G3" t="n">
-        <v>78913.70882586873</v>
+        <v>60833.22688660974</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3733.677342113134</v>
       </c>
       <c r="N3" t="n">
-        <v>3669.597560118405</v>
+        <v>3231.125156428118</v>
       </c>
       <c r="O3" t="n">
-        <v>14671.39637071359</v>
+        <v>11496.68104729243</v>
       </c>
       <c r="P3" t="n">
-        <v>26145.39079135456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>19400.90910273512</v>
       </c>
       <c r="E4" t="n">
-        <v>6528.943099913911</v>
+        <v>4924.402995269593</v>
       </c>
       <c r="F4" t="n">
-        <v>4924.402995269593</v>
+        <v>4270.120829437115</v>
       </c>
       <c r="G4" t="n">
         <v>2679.033993690438</v>
       </c>
       <c r="H4" t="n">
-        <v>2679.033993690439</v>
+        <v>2679.033993690438</v>
       </c>
       <c r="I4" t="n">
         <v>10695.27522286905</v>
       </c>
       <c r="J4" t="n">
+        <v>10695.27522286905</v>
+      </c>
+      <c r="K4" t="n">
         <v>10695.27522286906</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10695.27522286905</v>
       </c>
       <c r="L4" t="n">
         <v>10695.27522286905</v>
       </c>
       <c r="M4" t="n">
-        <v>10695.27522286906</v>
+        <v>10695.27522286905</v>
       </c>
       <c r="N4" t="n">
         <v>10695.27522286905</v>
       </c>
       <c r="O4" t="n">
-        <v>10695.27522286905</v>
+        <v>10695.27522286906</v>
       </c>
       <c r="P4" t="n">
-        <v>11484.27561135761</v>
+        <v>10695.27522286906</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2460.082911003373</v>
+        <v>4009.230703463096</v>
       </c>
       <c r="F5" t="n">
-        <v>4009.230703463096</v>
+        <v>5216.892730355435</v>
       </c>
       <c r="G5" t="n">
-        <v>9460.071166703499</v>
+        <v>9460.07116670349</v>
       </c>
       <c r="H5" t="n">
-        <v>9460.071166703498</v>
+        <v>9460.071166703496</v>
       </c>
       <c r="I5" t="n">
         <v>40710.12113924288</v>
@@ -26505,13 +26505,13 @@
         <v>40710.12113924288</v>
       </c>
       <c r="N5" t="n">
+        <v>40710.12113924288</v>
+      </c>
+      <c r="O5" t="n">
         <v>40710.12113924289</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>40710.12113924288</v>
-      </c>
-      <c r="P5" t="n">
-        <v>43385.32273194158</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16651.80453510678</v>
+        <v>-18038.11710164715</v>
       </c>
       <c r="C6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-18038.11710164715</v>
       </c>
       <c r="D6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="E6" t="n">
-        <v>-61774.48387041746</v>
+        <v>-87492.89322836424</v>
       </c>
       <c r="F6" t="n">
-        <v>5081.821251906464</v>
+        <v>15194.84019840487</v>
       </c>
       <c r="G6" t="n">
-        <v>-35586.31258715531</v>
+        <v>-18764.87790222688</v>
       </c>
       <c r="H6" t="n">
-        <v>43327.39623871339</v>
+        <v>42068.34898438286</v>
       </c>
       <c r="I6" t="n">
-        <v>-261040.3111151781</v>
+        <v>-261711.5918864226</v>
       </c>
       <c r="J6" t="n">
-        <v>92226.07749991983</v>
+        <v>91554.79672867557</v>
       </c>
       <c r="K6" t="n">
-        <v>92226.07749991989</v>
+        <v>91554.79672867557</v>
       </c>
       <c r="L6" t="n">
-        <v>92226.07749991992</v>
+        <v>91554.79672867563</v>
       </c>
       <c r="M6" t="n">
-        <v>92226.07749991992</v>
+        <v>87821.11938656242</v>
       </c>
       <c r="N6" t="n">
-        <v>88556.47993980156</v>
+        <v>88323.67157224745</v>
       </c>
       <c r="O6" t="n">
-        <v>77554.68112920634</v>
+        <v>80058.1156813831</v>
       </c>
       <c r="P6" t="n">
-        <v>70103.19959748905</v>
+        <v>91554.79672867554</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>112.8478399542832</v>
+        <v>142.1238518535382</v>
       </c>
       <c r="F3" t="n">
-        <v>142.1238518535382</v>
+        <v>160.7282770233651</v>
       </c>
       <c r="G3" t="n">
-        <v>222.1303260697264</v>
+        <v>222.1303260697263</v>
       </c>
       <c r="H3" t="n">
-        <v>222.1303260697264</v>
+        <v>222.1303260697263</v>
       </c>
       <c r="I3" t="n">
         <v>551.5907128643865</v>
       </c>
       <c r="J3" t="n">
-        <v>551.5907128643864</v>
+        <v>551.5907128643865</v>
       </c>
       <c r="K3" t="n">
         <v>551.5907128643865</v>
@@ -26779,7 +26779,7 @@
         <v>551.5907128643865</v>
       </c>
       <c r="P3" t="n">
-        <v>578.6986538040985</v>
+        <v>551.5907128643865</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="F4" t="n">
-        <v>14.98241337263099</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="G4" t="n">
-        <v>75.94786280235959</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="H4" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="I4" t="n">
-        <v>471.8000591907773</v>
+        <v>471.8000591907772</v>
       </c>
       <c r="J4" t="n">
-        <v>471.8000591907773</v>
+        <v>471.8000591907772</v>
       </c>
       <c r="K4" t="n">
         <v>471.8000591907773</v>
       </c>
       <c r="L4" t="n">
+        <v>471.8000591907772</v>
+      </c>
+      <c r="M4" t="n">
+        <v>471.8000591907772</v>
+      </c>
+      <c r="N4" t="n">
+        <v>471.8000591907772</v>
+      </c>
+      <c r="O4" t="n">
         <v>471.8000591907773</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>471.8000591907773</v>
-      </c>
-      <c r="N4" t="n">
-        <v>471.8000591907773</v>
-      </c>
-      <c r="O4" t="n">
-        <v>471.8000591907772</v>
-      </c>
-      <c r="P4" t="n">
-        <v>506.0804618258591</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>112.8478399542832</v>
+        <v>142.1238518535382</v>
       </c>
       <c r="F3" t="n">
-        <v>29.27601189925498</v>
+        <v>18.6044251698269</v>
       </c>
       <c r="G3" t="n">
-        <v>80.00647421618825</v>
+        <v>61.40204904636124</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27.10794093971197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="F4" t="n">
-        <v>14.98241337263099</v>
+        <v>13.19219668075842</v>
       </c>
       <c r="G4" t="n">
-        <v>60.9654494297286</v>
+        <v>47.77325274897008</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="N4" t="n">
-        <v>14.98241337263105</v>
+        <v>13.19219668075842</v>
       </c>
       <c r="O4" t="n">
-        <v>60.96544942972849</v>
+        <v>47.77325274897019</v>
       </c>
       <c r="P4" t="n">
-        <v>34.28040263508183</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="N4" t="n">
-        <v>14.98241337263099</v>
+        <v>13.19219668075842</v>
       </c>
       <c r="O4" t="n">
-        <v>60.9654494297286</v>
+        <v>47.77325274897008</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5713521682554293</v>
       </c>
       <c r="H11" t="n">
-        <v>4.646041973595183</v>
+        <v>5.851360393145917</v>
       </c>
       <c r="I11" t="n">
-        <v>17.48971396919599</v>
+        <v>22.02705446666746</v>
       </c>
       <c r="J11" t="n">
-        <v>38.50379640731595</v>
+        <v>48.49280109046929</v>
       </c>
       <c r="K11" t="n">
-        <v>57.70720973501366</v>
+        <v>72.67813837272163</v>
       </c>
       <c r="L11" t="n">
-        <v>71.5908964968263</v>
+        <v>90.16365729196875</v>
       </c>
       <c r="M11" t="n">
-        <v>79.65866644169859</v>
+        <v>100.3244414141812</v>
       </c>
       <c r="N11" t="n">
-        <v>80.94762694529702</v>
+        <v>101.947795762237</v>
       </c>
       <c r="O11" t="n">
-        <v>76.43654871998886</v>
+        <v>96.26641263914705</v>
       </c>
       <c r="P11" t="n">
-        <v>65.23682591045574</v>
+        <v>82.16115598534113</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.99013940447476</v>
+        <v>61.69960645969354</v>
       </c>
       <c r="R11" t="n">
-        <v>28.497198498606</v>
+        <v>35.89020063917515</v>
       </c>
       <c r="S11" t="n">
-        <v>10.33776945912856</v>
+        <v>13.01968753412061</v>
       </c>
       <c r="T11" t="n">
-        <v>1.98589515336633</v>
+        <v>2.501094116538143</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04570817346043434</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.3057003605906293</v>
       </c>
       <c r="H12" t="n">
-        <v>2.344254184710675</v>
+        <v>2.952421903598972</v>
       </c>
       <c r="I12" t="n">
-        <v>8.357127770199273</v>
+        <v>10.52520978349316</v>
       </c>
       <c r="J12" t="n">
-        <v>22.93259736278504</v>
+        <v>28.88198012053836</v>
       </c>
       <c r="K12" t="n">
-        <v>39.19546154336646</v>
+        <v>49.36390428011052</v>
       </c>
       <c r="L12" t="n">
-        <v>52.70313506544141</v>
+        <v>66.375861188768</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>72.54669711104842</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>68.17580676638099</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>72.73389237263099</v>
       </c>
       <c r="P12" t="n">
-        <v>46.35065335782624</v>
+        <v>58.37536096225797</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.98418428329677</v>
+        <v>39.02238287118278</v>
       </c>
       <c r="R12" t="n">
-        <v>15.07050964521541</v>
+        <v>18.98023817772346</v>
       </c>
       <c r="S12" t="n">
-        <v>4.508590586852725</v>
+        <v>5.678250118865412</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.232186979749071</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.02011186582833088</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2562889131785114</v>
       </c>
       <c r="H13" t="n">
-        <v>1.809265368447361</v>
+        <v>2.27864142807804</v>
       </c>
       <c r="I13" t="n">
-        <v>6.119682861783096</v>
+        <v>7.707306589041054</v>
       </c>
       <c r="J13" t="n">
-        <v>14.38717461187639</v>
+        <v>18.11962616172076</v>
       </c>
       <c r="K13" t="n">
-        <v>23.64254745271703</v>
+        <v>29.77611191292159</v>
       </c>
       <c r="L13" t="n">
-        <v>30.25432089528438</v>
+        <v>38.10317169201251</v>
       </c>
       <c r="M13" t="n">
-        <v>31.89893941527384</v>
+        <v>40.17445209033701</v>
       </c>
       <c r="N13" t="n">
-        <v>31.14045393361393</v>
+        <v>39.21919341394441</v>
       </c>
       <c r="O13" t="n">
-        <v>28.76324943621632</v>
+        <v>36.22527292817724</v>
       </c>
       <c r="P13" t="n">
-        <v>24.61192889757021</v>
+        <v>30.99697909933558</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.04002383309676</v>
+        <v>21.46070162988426</v>
       </c>
       <c r="R13" t="n">
-        <v>9.149924859244006</v>
+        <v>11.52368149619016</v>
       </c>
       <c r="S13" t="n">
-        <v>3.546382117907553</v>
+        <v>4.466416786938238</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8694833570248045</v>
+        <v>1.095052629035457</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01397939526428246</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5713521682554293</v>
+        <v>0.6461438272296077</v>
       </c>
       <c r="H14" t="n">
-        <v>5.851360393145917</v>
+        <v>6.617320470615222</v>
       </c>
       <c r="I14" t="n">
-        <v>22.02705446666746</v>
+        <v>24.91045989926948</v>
       </c>
       <c r="J14" t="n">
-        <v>48.49280109046929</v>
+        <v>54.84064965632897</v>
       </c>
       <c r="K14" t="n">
-        <v>72.67813837272163</v>
+        <v>82.19191786295828</v>
       </c>
       <c r="L14" t="n">
-        <v>90.16365729196875</v>
+        <v>101.9663420155364</v>
       </c>
       <c r="M14" t="n">
-        <v>100.3244414141812</v>
+        <v>113.4572023030309</v>
       </c>
       <c r="N14" t="n">
-        <v>101.947795762237</v>
+        <v>115.2930584521471</v>
       </c>
       <c r="O14" t="n">
-        <v>96.26641263914705</v>
+        <v>108.8679657701327</v>
       </c>
       <c r="P14" t="n">
-        <v>82.16115598534113</v>
+        <v>92.9162900354017</v>
       </c>
       <c r="Q14" t="n">
-        <v>61.69960645969354</v>
+        <v>69.77626422274135</v>
       </c>
       <c r="R14" t="n">
-        <v>35.89020063917515</v>
+        <v>40.58833218721188</v>
       </c>
       <c r="S14" t="n">
-        <v>13.01968753412061</v>
+        <v>14.7240024629947</v>
       </c>
       <c r="T14" t="n">
-        <v>2.501094116538143</v>
+        <v>2.828494603697609</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04570817346043434</v>
+        <v>0.05169150617836861</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3057003605906293</v>
+        <v>0.3457174260502569</v>
       </c>
       <c r="H15" t="n">
-        <v>2.952421903598972</v>
+        <v>3.338902509485377</v>
       </c>
       <c r="I15" t="n">
-        <v>10.52520978349316</v>
+        <v>11.90299032673034</v>
       </c>
       <c r="J15" t="n">
-        <v>28.88198012053836</v>
+        <v>32.66271523924818</v>
       </c>
       <c r="K15" t="n">
-        <v>49.36390428011052</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>66.375861188768</v>
+        <v>75.06465428341215</v>
       </c>
       <c r="M15" t="n">
-        <v>72.54669711104842</v>
+        <v>85.73889379180685</v>
       </c>
       <c r="N15" t="n">
-        <v>68.17580676638099</v>
+        <v>81.36800344713942</v>
       </c>
       <c r="O15" t="n">
-        <v>72.73389237263099</v>
+        <v>82.25497022345739</v>
       </c>
       <c r="P15" t="n">
-        <v>58.37536096225797</v>
+        <v>66.01686533059687</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.02238287118278</v>
+        <v>44.13052617441525</v>
       </c>
       <c r="R15" t="n">
-        <v>18.98023817772346</v>
+        <v>21.46480650512035</v>
       </c>
       <c r="S15" t="n">
-        <v>5.678250118865412</v>
+        <v>6.421549558433496</v>
       </c>
       <c r="T15" t="n">
-        <v>1.232186979749071</v>
+        <v>1.39348383570257</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02011186582833088</v>
+        <v>0.02274456750330639</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2562889131785114</v>
+        <v>0.2898378765995107</v>
       </c>
       <c r="H16" t="n">
-        <v>2.27864142807804</v>
+        <v>2.576922211948379</v>
       </c>
       <c r="I16" t="n">
-        <v>7.707306589041054</v>
+        <v>8.71621541628347</v>
       </c>
       <c r="J16" t="n">
-        <v>18.11962616172076</v>
+        <v>20.49153787558541</v>
       </c>
       <c r="K16" t="n">
-        <v>29.77611191292159</v>
+        <v>33.6738914812886</v>
       </c>
       <c r="L16" t="n">
-        <v>38.10317169201251</v>
+        <v>43.09098758098545</v>
       </c>
       <c r="M16" t="n">
-        <v>40.17445209033701</v>
+        <v>45.43340460186693</v>
       </c>
       <c r="N16" t="n">
-        <v>39.21919341394441</v>
+        <v>44.35309978908698</v>
       </c>
       <c r="O16" t="n">
-        <v>36.22527292817724</v>
+        <v>40.96726641244722</v>
       </c>
       <c r="P16" t="n">
-        <v>30.99697909933558</v>
+        <v>35.05457372981717</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.46070162988426</v>
+        <v>24.26996983052812</v>
       </c>
       <c r="R16" t="n">
-        <v>11.52368149619016</v>
+        <v>13.03216488782891</v>
       </c>
       <c r="S16" t="n">
-        <v>4.466416786938238</v>
+        <v>5.051083722193289</v>
       </c>
       <c r="T16" t="n">
-        <v>1.095052629035457</v>
+        <v>1.238398200016091</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01397939526428246</v>
+        <v>0.01580933872360969</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8929862354561859</v>
+        <v>0.8929862354561854</v>
       </c>
       <c r="H17" t="n">
-        <v>9.145295283865666</v>
+        <v>9.145295283865661</v>
       </c>
       <c r="I17" t="n">
-        <v>34.42685184242464</v>
+        <v>34.42685184242463</v>
       </c>
       <c r="J17" t="n">
-        <v>75.79109050154953</v>
+        <v>75.79109050154949</v>
       </c>
       <c r="K17" t="n">
-        <v>113.5911978484099</v>
+        <v>113.5911978484098</v>
       </c>
       <c r="L17" t="n">
-        <v>140.9199253517522</v>
+        <v>140.9199253517521</v>
       </c>
       <c r="M17" t="n">
-        <v>156.8005693165461</v>
+        <v>156.800569316546</v>
       </c>
       <c r="N17" t="n">
-        <v>159.337766458036</v>
+        <v>159.3377664580359</v>
       </c>
       <c r="O17" t="n">
-        <v>150.4581345792186</v>
+        <v>150.4581345792185</v>
       </c>
       <c r="P17" t="n">
-        <v>128.412536891394</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.43246733411927</v>
+        <v>96.43246733411921</v>
       </c>
       <c r="R17" t="n">
-        <v>56.09404661297469</v>
+        <v>56.09404661297466</v>
       </c>
       <c r="S17" t="n">
-        <v>20.34892384045786</v>
+        <v>20.34892384045785</v>
       </c>
       <c r="T17" t="n">
-        <v>3.909047245709456</v>
+        <v>3.909047245709454</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07143889883649486</v>
+        <v>0.07143889883649482</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4777897579612984</v>
+        <v>0.4777897579612981</v>
       </c>
       <c r="H18" t="n">
-        <v>4.614443188731487</v>
+        <v>4.614443188731485</v>
       </c>
       <c r="I18" t="n">
-        <v>16.45021754384295</v>
+        <v>16.45021754384294</v>
       </c>
       <c r="J18" t="n">
-        <v>45.14065428177337</v>
+        <v>45.14065428177335</v>
       </c>
       <c r="K18" t="n">
-        <v>77.15256806518036</v>
+        <v>77.15256806518032</v>
       </c>
       <c r="L18" t="n">
         <v>103.7411489819038</v>
       </c>
       <c r="M18" t="n">
-        <v>121.0610277080009</v>
+        <v>121.0610277080008</v>
       </c>
       <c r="N18" t="n">
         <v>124.265152883101</v>
       </c>
       <c r="O18" t="n">
-        <v>113.6783377198533</v>
+        <v>113.6783377198532</v>
       </c>
       <c r="P18" t="n">
-        <v>91.23688807946934</v>
+        <v>91.23688807946928</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.98944348993697</v>
+        <v>60.98944348993693</v>
       </c>
       <c r="R18" t="n">
-        <v>29.66487637587781</v>
+        <v>29.6648763758778</v>
       </c>
       <c r="S18" t="n">
-        <v>8.874735197219724</v>
+        <v>8.874735197219719</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92582801564225</v>
+        <v>1.925828015642249</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03143353670798017</v>
+        <v>0.03143353670798015</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4005628830765557</v>
+        <v>0.4005628830765556</v>
       </c>
       <c r="H19" t="n">
-        <v>3.561368178626108</v>
+        <v>3.561368178626106</v>
       </c>
       <c r="I19" t="n">
-        <v>12.04601833833861</v>
+        <v>12.0460183383386</v>
       </c>
       <c r="J19" t="n">
-        <v>28.31979583351249</v>
+        <v>28.31979583351248</v>
       </c>
       <c r="K19" t="n">
-        <v>46.53812405198529</v>
+        <v>46.53812405198526</v>
       </c>
       <c r="L19" t="n">
-        <v>59.55277627121813</v>
+        <v>59.5527762712181</v>
       </c>
       <c r="M19" t="n">
-        <v>62.79005266262773</v>
+        <v>62.7900526626277</v>
       </c>
       <c r="N19" t="n">
-        <v>61.2970455529788</v>
+        <v>61.29704555297877</v>
       </c>
       <c r="O19" t="n">
-        <v>56.61774278249356</v>
+        <v>56.61774278249353</v>
       </c>
       <c r="P19" t="n">
-        <v>48.44625996773178</v>
+        <v>48.44625996773176</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.54167923652869</v>
+        <v>33.54167923652867</v>
       </c>
       <c r="R19" t="n">
-        <v>18.01076381542404</v>
+        <v>18.01076381542403</v>
       </c>
       <c r="S19" t="n">
-        <v>6.980718607797792</v>
+        <v>6.980718607797789</v>
       </c>
       <c r="T19" t="n">
-        <v>1.711495954963465</v>
+        <v>1.711495954963464</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02184888453144852</v>
+        <v>0.02184888453144851</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8929862354561857</v>
+        <v>0.8929862354561855</v>
       </c>
       <c r="H20" t="n">
-        <v>9.145295283865664</v>
+        <v>9.145295283865662</v>
       </c>
       <c r="I20" t="n">
         <v>34.42685184242463</v>
       </c>
       <c r="J20" t="n">
-        <v>75.79109050154952</v>
+        <v>75.79109050154949</v>
       </c>
       <c r="K20" t="n">
-        <v>113.5911978484099</v>
+        <v>113.5911978484098</v>
       </c>
       <c r="L20" t="n">
-        <v>140.9199253517522</v>
+        <v>140.9199253517521</v>
       </c>
       <c r="M20" t="n">
-        <v>156.8005693165461</v>
+        <v>156.800569316546</v>
       </c>
       <c r="N20" t="n">
         <v>159.337766458036</v>
       </c>
       <c r="O20" t="n">
-        <v>150.4581345792186</v>
+        <v>150.4581345792185</v>
       </c>
       <c r="P20" t="n">
         <v>128.4125368913939</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.43246733411925</v>
+        <v>96.43246733411922</v>
       </c>
       <c r="R20" t="n">
-        <v>56.09404661297468</v>
+        <v>56.09404661297467</v>
       </c>
       <c r="S20" t="n">
         <v>20.34892384045785</v>
       </c>
       <c r="T20" t="n">
-        <v>3.909047245709455</v>
+        <v>3.909047245709454</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07143889883649485</v>
+        <v>0.07143889883649483</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4777897579612982</v>
+        <v>0.4777897579612981</v>
       </c>
       <c r="H21" t="n">
-        <v>4.614443188731487</v>
+        <v>4.614443188731485</v>
       </c>
       <c r="I21" t="n">
-        <v>16.45021754384295</v>
+        <v>16.45021754384294</v>
       </c>
       <c r="J21" t="n">
-        <v>45.14065428177337</v>
+        <v>45.14065428177336</v>
       </c>
       <c r="K21" t="n">
-        <v>77.15256806518035</v>
+        <v>77.15256806518033</v>
       </c>
       <c r="L21" t="n">
         <v>103.7411489819038</v>
       </c>
       <c r="M21" t="n">
-        <v>121.0610277080009</v>
+        <v>121.0610277080008</v>
       </c>
       <c r="N21" t="n">
         <v>124.265152883101</v>
       </c>
       <c r="O21" t="n">
-        <v>113.6783377198533</v>
+        <v>113.6783377198532</v>
       </c>
       <c r="P21" t="n">
-        <v>91.23688807946932</v>
+        <v>91.2368880794693</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.98944348993695</v>
+        <v>60.98944348993694</v>
       </c>
       <c r="R21" t="n">
-        <v>29.66487637587781</v>
+        <v>29.6648763758778</v>
       </c>
       <c r="S21" t="n">
-        <v>8.874735197219723</v>
+        <v>8.874735197219721</v>
       </c>
       <c r="T21" t="n">
-        <v>1.92582801564225</v>
+        <v>1.925828015642249</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03143353670798016</v>
+        <v>0.03143353670798015</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4005628830765557</v>
+        <v>0.4005628830765556</v>
       </c>
       <c r="H22" t="n">
-        <v>3.561368178626107</v>
+        <v>3.561368178626106</v>
       </c>
       <c r="I22" t="n">
-        <v>12.04601833833861</v>
+        <v>12.0460183383386</v>
       </c>
       <c r="J22" t="n">
-        <v>28.31979583351249</v>
+        <v>28.31979583351248</v>
       </c>
       <c r="K22" t="n">
-        <v>46.53812405198529</v>
+        <v>46.53812405198527</v>
       </c>
       <c r="L22" t="n">
-        <v>59.55277627121812</v>
+        <v>59.55277627121811</v>
       </c>
       <c r="M22" t="n">
-        <v>62.79005266262772</v>
+        <v>62.79005266262771</v>
       </c>
       <c r="N22" t="n">
-        <v>61.29704555297879</v>
+        <v>61.29704555297878</v>
       </c>
       <c r="O22" t="n">
-        <v>56.61774278249355</v>
+        <v>56.61774278249354</v>
       </c>
       <c r="P22" t="n">
-        <v>48.44625996773178</v>
+        <v>48.44625996773176</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.54167923652868</v>
+        <v>33.54167923652867</v>
       </c>
       <c r="R22" t="n">
-        <v>18.01076381542404</v>
+        <v>18.01076381542403</v>
       </c>
       <c r="S22" t="n">
-        <v>6.980718607797791</v>
+        <v>6.980718607797789</v>
       </c>
       <c r="T22" t="n">
         <v>1.711495954963465</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02184888453144852</v>
+        <v>0.02184888453144851</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.217450101967381</v>
+        <v>2.217450101967382</v>
       </c>
       <c r="H26" t="n">
         <v>22.70946085677345</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609754</v>
+        <v>85.48824505609755</v>
       </c>
       <c r="J26" t="n">
         <v>188.2033055918542</v>
@@ -32955,10 +32955,10 @@
         <v>349.9302569662178</v>
       </c>
       <c r="M26" t="n">
-        <v>389.3648352170802</v>
+        <v>389.3648352170803</v>
       </c>
       <c r="N26" t="n">
-        <v>395.665165319295</v>
+        <v>395.6651653192951</v>
       </c>
       <c r="O26" t="n">
         <v>373.6153958678569</v>
@@ -32973,13 +32973,13 @@
         <v>139.2918999677086</v>
       </c>
       <c r="S26" t="n">
-        <v>50.53014419858174</v>
+        <v>50.53014419858175</v>
       </c>
       <c r="T26" t="n">
-        <v>9.706887821362216</v>
+        <v>9.706887821362217</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1773960081573904</v>
+        <v>0.1773960081573905</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>11.45851650686207</v>
       </c>
       <c r="I27" t="n">
-        <v>40.84893486778711</v>
+        <v>40.84893486778712</v>
       </c>
       <c r="J27" t="n">
         <v>112.0925994887901</v>
@@ -33037,28 +33037,28 @@
         <v>300.6169385110906</v>
       </c>
       <c r="N27" t="n">
-        <v>308.5733743598608</v>
+        <v>308.573374359861</v>
       </c>
       <c r="O27" t="n">
         <v>282.2843528373054</v>
       </c>
       <c r="P27" t="n">
-        <v>226.5580797800911</v>
+        <v>226.5580797800912</v>
       </c>
       <c r="Q27" t="n">
-        <v>151.448076483067</v>
+        <v>151.4480764830671</v>
       </c>
       <c r="R27" t="n">
-        <v>73.66337859724771</v>
+        <v>73.66337859724773</v>
       </c>
       <c r="S27" t="n">
         <v>22.03761008472335</v>
       </c>
       <c r="T27" t="n">
-        <v>4.78218740681482</v>
+        <v>4.782187406814821</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07805528955628113</v>
+        <v>0.07805528955628115</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9946717772964344</v>
+        <v>0.9946717772964346</v>
       </c>
       <c r="H28" t="n">
-        <v>8.843536347235577</v>
+        <v>8.843536347235579</v>
       </c>
       <c r="I28" t="n">
-        <v>29.9124930845146</v>
+        <v>29.91249308451461</v>
       </c>
       <c r="J28" t="n">
-        <v>70.32329465485792</v>
+        <v>70.32329465485793</v>
       </c>
       <c r="K28" t="n">
         <v>115.5627755804403</v>
       </c>
       <c r="L28" t="n">
-        <v>147.8805658718717</v>
+        <v>147.8805658718718</v>
       </c>
       <c r="M28" t="n">
-        <v>155.9193223265674</v>
+        <v>155.9193223265675</v>
       </c>
       <c r="N28" t="n">
-        <v>152.2119093384626</v>
+        <v>152.2119093384627</v>
       </c>
       <c r="O28" t="n">
         <v>140.5923344854997</v>
@@ -33125,10 +33125,10 @@
         <v>120.3010302286524</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.29019764252234</v>
+        <v>83.29019764252237</v>
       </c>
       <c r="R28" t="n">
-        <v>44.72406009552876</v>
+        <v>44.72406009552877</v>
       </c>
       <c r="S28" t="n">
         <v>17.33441633706604</v>
@@ -33137,7 +33137,7 @@
         <v>4.249961230266583</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05425482421616921</v>
+        <v>0.05425482421616923</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.326426748961198</v>
+        <v>2.217450101967382</v>
       </c>
       <c r="H44" t="n">
-        <v>23.82551794279888</v>
+        <v>22.70946085677345</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932668</v>
+        <v>85.48824505609755</v>
       </c>
       <c r="J44" t="n">
-        <v>197.4525622846457</v>
+        <v>188.2033055918542</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9302065681733</v>
+        <v>282.0679684081335</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866946</v>
+        <v>349.9302569662178</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835333</v>
+        <v>389.3648352170803</v>
       </c>
       <c r="N44" t="n">
-        <v>415.1101408840194</v>
+        <v>395.6651653192951</v>
       </c>
       <c r="O44" t="n">
-        <v>391.9767348990364</v>
+        <v>373.6153958678569</v>
       </c>
       <c r="P44" t="n">
-        <v>334.5430745340568</v>
+        <v>318.8720964755371</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.2279165868838</v>
+        <v>239.4596646988302</v>
       </c>
       <c r="R44" t="n">
-        <v>146.137404269434</v>
+        <v>139.2918999677086</v>
       </c>
       <c r="S44" t="n">
-        <v>53.01344954195336</v>
+        <v>50.53014419858175</v>
       </c>
       <c r="T44" t="n">
-        <v>10.18393309357765</v>
+        <v>9.706887821362217</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1861141399168958</v>
+        <v>0.1773960081573905</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.244748047805042</v>
+        <v>1.186440401255473</v>
       </c>
       <c r="H45" t="n">
-        <v>12.0216456195908</v>
+        <v>11.45851650686207</v>
       </c>
       <c r="I45" t="n">
-        <v>42.85645690907711</v>
+        <v>40.84893486778712</v>
       </c>
       <c r="J45" t="n">
-        <v>117.601393411265</v>
+        <v>112.0925994887901</v>
       </c>
       <c r="K45" t="n">
-        <v>200.9995126142028</v>
+        <v>191.5841063729068</v>
       </c>
       <c r="L45" t="n">
-        <v>270.2686495903009</v>
+        <v>257.6084739655798</v>
       </c>
       <c r="M45" t="n">
-        <v>315.3907663232337</v>
+        <v>300.6169385110906</v>
       </c>
       <c r="N45" t="n">
-        <v>323.7382214332947</v>
+        <v>308.573374359861</v>
       </c>
       <c r="O45" t="n">
-        <v>296.1572252161409</v>
+        <v>282.2843528373054</v>
       </c>
       <c r="P45" t="n">
-        <v>237.69228291814</v>
+        <v>226.5580797800912</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.8909964180612</v>
+        <v>151.4480764830671</v>
       </c>
       <c r="R45" t="n">
-        <v>77.28356738915869</v>
+        <v>73.66337859724773</v>
       </c>
       <c r="S45" t="n">
-        <v>23.12064904585241</v>
+        <v>22.03761008472335</v>
       </c>
       <c r="T45" t="n">
-        <v>5.017208140056287</v>
+        <v>4.782187406814821</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.07805528955628115</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0435549494828</v>
+        <v>0.9946717772964346</v>
       </c>
       <c r="H46" t="n">
-        <v>9.278152187219815</v>
+        <v>8.843536347235579</v>
       </c>
       <c r="I46" t="n">
-        <v>31.38254338990096</v>
+        <v>29.91249308451461</v>
       </c>
       <c r="J46" t="n">
-        <v>73.779334928434</v>
+        <v>70.32329465485793</v>
       </c>
       <c r="K46" t="n">
-        <v>121.2421114035472</v>
+        <v>115.5627755804403</v>
       </c>
       <c r="L46" t="n">
-        <v>155.1481603985611</v>
+        <v>147.8805658718718</v>
       </c>
       <c r="M46" t="n">
-        <v>163.5819817630175</v>
+        <v>155.9193223265675</v>
       </c>
       <c r="N46" t="n">
-        <v>159.6923678603999</v>
+        <v>152.2119093384627</v>
       </c>
       <c r="O46" t="n">
-        <v>147.5017486778054</v>
+        <v>140.5923344854997</v>
       </c>
       <c r="P46" t="n">
-        <v>126.2132277083561</v>
+        <v>120.3010302286524</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.38349672441888</v>
+        <v>83.29019764252237</v>
       </c>
       <c r="R46" t="n">
-        <v>46.92202527401754</v>
+        <v>44.72406009552877</v>
       </c>
       <c r="S46" t="n">
-        <v>18.18631671053207</v>
+        <v>17.33441633706604</v>
       </c>
       <c r="T46" t="n">
-        <v>4.458825693244692</v>
+        <v>4.249961230266583</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05425482421616923</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>11.30042632400926</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3.076637013363921</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>10.26133737791895</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4.115725959454224</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -35579,16 +35579,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>14.37706333737318</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>14.98241337263099</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.15952639134025</v>
       </c>
       <c r="M14" t="n">
-        <v>14.98241337263099</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="N14" t="n">
-        <v>14.37706333737318</v>
+        <v>22.38076769552775</v>
       </c>
       <c r="O14" t="n">
-        <v>14.98241337263099</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>14.98241337263099</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>10.26133737791895</v>
+        <v>18.9501304725631</v>
       </c>
       <c r="M15" t="n">
-        <v>14.98241337263099</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="N15" t="n">
-        <v>14.98241337263099</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="O15" t="n">
-        <v>14.98241337263099</v>
+        <v>24.5034912234574</v>
       </c>
       <c r="P15" t="n">
-        <v>4.115725959454224</v>
+        <v>11.75723032779312</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14.98241337263099</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.98241337263099</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>14.37706333737318</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="O16" t="n">
-        <v>14.98241337263099</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>28.17461005338942</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>27.03624197042419</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.467499168241588</v>
+        <v>2.467499168241545</v>
       </c>
       <c r="K17" t="n">
-        <v>24.45480817519277</v>
+        <v>24.45480817519271</v>
       </c>
       <c r="L17" t="n">
-        <v>45.43452728890714</v>
+        <v>45.43452728890729</v>
       </c>
       <c r="M17" t="n">
-        <v>63.51034485950065</v>
+        <v>63.51034485950059</v>
       </c>
       <c r="N17" t="n">
-        <v>66.42547570141669</v>
+        <v>66.4254757014166</v>
       </c>
       <c r="O17" t="n">
-        <v>57.26835895343542</v>
+        <v>57.26835895343534</v>
       </c>
       <c r="P17" t="n">
-        <v>34.7631736105098</v>
+        <v>34.76317361050971</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.39866293496722</v>
+        <v>6.398662934967163</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.32678528056497</v>
+        <v>21.32678528056493</v>
       </c>
       <c r="L18" t="n">
-        <v>47.62662517105478</v>
+        <v>47.62662517105474</v>
       </c>
       <c r="M18" t="n">
-        <v>63.49674396958346</v>
+        <v>63.49674396958338</v>
       </c>
       <c r="N18" t="n">
-        <v>71.07175948935102</v>
+        <v>71.07175948935097</v>
       </c>
       <c r="O18" t="n">
-        <v>55.92685871985329</v>
+        <v>55.92685871985324</v>
       </c>
       <c r="P18" t="n">
-        <v>36.97725307666559</v>
+        <v>36.97725307666553</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.296824985098247</v>
+        <v>4.296824985098212</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>42.54459321251301</v>
       </c>
       <c r="K19" t="n">
-        <v>75.94786280235959</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="L19" t="n">
-        <v>75.94786280235959</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="M19" t="n">
-        <v>6.525110163847685</v>
+        <v>20.20742431852293</v>
       </c>
       <c r="N19" t="n">
-        <v>9.584400044559359</v>
+        <v>9.584400044559324</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5428447094972313</v>
+        <v>0.5428447094972029</v>
       </c>
       <c r="P19" t="n">
-        <v>56.2269073671883</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.94786280235959</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.467499168241574</v>
+        <v>2.467499168241545</v>
       </c>
       <c r="K20" t="n">
-        <v>24.45480817519275</v>
+        <v>24.45480817519272</v>
       </c>
       <c r="L20" t="n">
-        <v>45.43452728890735</v>
+        <v>45.43452728890729</v>
       </c>
       <c r="M20" t="n">
-        <v>63.51034485950065</v>
+        <v>63.51034485950059</v>
       </c>
       <c r="N20" t="n">
-        <v>66.42547570141666</v>
+        <v>66.42547570141663</v>
       </c>
       <c r="O20" t="n">
-        <v>57.26835895343542</v>
+        <v>57.26835895343537</v>
       </c>
       <c r="P20" t="n">
-        <v>34.76317361050977</v>
+        <v>34.76317361050974</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.398662934967206</v>
+        <v>6.398662934967177</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.32678528056496</v>
+        <v>21.32678528056494</v>
       </c>
       <c r="L21" t="n">
-        <v>47.62662517105478</v>
+        <v>47.62662517105476</v>
       </c>
       <c r="M21" t="n">
-        <v>63.49674396958344</v>
+        <v>63.49674396958341</v>
       </c>
       <c r="N21" t="n">
-        <v>71.071759489351</v>
+        <v>71.07175948935097</v>
       </c>
       <c r="O21" t="n">
-        <v>55.92685871985328</v>
+        <v>55.92685871985325</v>
       </c>
       <c r="P21" t="n">
-        <v>36.97725307666558</v>
+        <v>36.97725307666555</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.296824985098233</v>
+        <v>4.296824985098308</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>42.54459321251301</v>
       </c>
       <c r="K22" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="L22" t="n">
-        <v>4.924482377316615</v>
+        <v>4.9244823773166</v>
       </c>
       <c r="M22" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="N22" t="n">
-        <v>67.41193519827873</v>
+        <v>9.584400044559338</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5428447094972242</v>
+        <v>0.54284470949721</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>15.28294194120637</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.94786280235959</v>
+        <v>75.94786280235957</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0.5423709677871216</v>
       </c>
       <c r="J24" t="n">
-        <v>60.7233606887901</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K24" t="n">
-        <v>135.7583235882914</v>
+        <v>354.5656334897024</v>
       </c>
       <c r="L24" t="n">
-        <v>278.0710471554319</v>
+        <v>201.4939501547307</v>
       </c>
       <c r="M24" t="n">
         <v>243.0526547726732</v>
@@ -36454,13 +36454,13 @@
         <v>224.5328738373055</v>
       </c>
       <c r="P24" t="n">
-        <v>471.8000591907773</v>
+        <v>172.2984447772874</v>
       </c>
       <c r="Q24" t="n">
         <v>94.75545797822835</v>
       </c>
       <c r="R24" t="n">
-        <v>103.5214789635405</v>
+        <v>14.66317949184232</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36524,13 +36524,13 @@
         <v>93.25227197797025</v>
       </c>
       <c r="M25" t="n">
-        <v>102.4646629881104</v>
+        <v>420.7219957343127</v>
       </c>
       <c r="N25" t="n">
         <v>435.8874471104327</v>
       </c>
       <c r="O25" t="n">
-        <v>402.774769158706</v>
+        <v>84.51743641250343</v>
       </c>
       <c r="P25" t="n">
         <v>328.0540001777558</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>114.8797142585462</v>
+        <v>114.8797142585463</v>
       </c>
       <c r="K26" t="n">
-        <v>192.9315787349163</v>
+        <v>192.9315787349164</v>
       </c>
       <c r="L26" t="n">
         <v>254.444858903373</v>
       </c>
       <c r="M26" t="n">
-        <v>296.0746107600347</v>
+        <v>296.0746107600348</v>
       </c>
       <c r="N26" t="n">
-        <v>302.7528745626757</v>
+        <v>302.7528745626758</v>
       </c>
       <c r="O26" t="n">
         <v>280.4256202420738</v>
       </c>
       <c r="P26" t="n">
-        <v>225.2227331946529</v>
+        <v>225.222733194653</v>
       </c>
       <c r="Q26" t="n">
-        <v>149.4258602996781</v>
+        <v>149.4258602996782</v>
       </c>
       <c r="R26" t="n">
-        <v>51.9797571529851</v>
+        <v>51.97975715298513</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5423709677871145</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J27" t="n">
-        <v>60.72336068879009</v>
+        <v>60.7233606887901</v>
       </c>
       <c r="K27" t="n">
-        <v>471.8000591907773</v>
+        <v>135.7583235882914</v>
       </c>
       <c r="L27" t="n">
         <v>201.4939501547307</v>
       </c>
       <c r="M27" t="n">
-        <v>243.0526547726731</v>
+        <v>243.0526547726732</v>
       </c>
       <c r="N27" t="n">
-        <v>255.3799809661108</v>
+        <v>255.379980966111</v>
       </c>
       <c r="O27" t="n">
-        <v>224.5328738373054</v>
+        <v>471.8000591907772</v>
       </c>
       <c r="P27" t="n">
         <v>172.2984447772874</v>
       </c>
       <c r="Q27" t="n">
-        <v>134.7924337899338</v>
+        <v>292.6598250766078</v>
       </c>
       <c r="R27" t="n">
-        <v>103.5214789635405</v>
+        <v>14.66317949184232</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>84.54809203385844</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K28" t="n">
-        <v>244.292995737423</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L28" t="n">
-        <v>93.25227197797022</v>
+        <v>410.4028893870844</v>
       </c>
       <c r="M28" t="n">
-        <v>448.1052379230252</v>
+        <v>99.65437982778741</v>
       </c>
       <c r="N28" t="n">
-        <v>435.8874471104326</v>
+        <v>121.5471128616412</v>
       </c>
       <c r="O28" t="n">
-        <v>84.5174364125034</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P28" t="n">
         <v>328.0540001777558</v>
@@ -36910,10 +36910,10 @@
         <v>0.5423709677871216</v>
       </c>
       <c r="J30" t="n">
-        <v>60.7233606887901</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K30" t="n">
-        <v>301.1937200606908</v>
+        <v>135.7583235882914</v>
       </c>
       <c r="L30" t="n">
         <v>201.4939501547307</v>
@@ -36928,10 +36928,10 @@
         <v>224.5328738373055</v>
       </c>
       <c r="P30" t="n">
-        <v>471.8000591907773</v>
+        <v>172.2984447772874</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.75545797822835</v>
+        <v>313.5627678796397</v>
       </c>
       <c r="R30" t="n">
         <v>14.66317949184232</v>
@@ -36992,13 +36992,13 @@
         <v>84.54809203385847</v>
       </c>
       <c r="K31" t="n">
-        <v>63.31240602137346</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L31" t="n">
-        <v>410.4028893870844</v>
+        <v>223.612009891664</v>
       </c>
       <c r="M31" t="n">
-        <v>121.2273322371287</v>
+        <v>99.65437982778741</v>
       </c>
       <c r="N31" t="n">
         <v>435.8874471104327</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>114.8797142585462</v>
+        <v>114.8797142585463</v>
       </c>
       <c r="K32" t="n">
         <v>192.9315787349164</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.3078294018249</v>
+        <v>0.5423709677871216</v>
       </c>
       <c r="J33" t="n">
         <v>60.7233606887901</v>
       </c>
       <c r="K33" t="n">
-        <v>135.7583235882914</v>
+        <v>223.6507332616316</v>
       </c>
       <c r="L33" t="n">
-        <v>347.1638881930923</v>
+        <v>201.4939501547307</v>
       </c>
       <c r="M33" t="n">
         <v>243.0526547726732</v>
@@ -37165,10 +37165,10 @@
         <v>224.5328738373055</v>
       </c>
       <c r="P33" t="n">
-        <v>471.8000591907773</v>
+        <v>172.2984447772874</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.75545797822835</v>
+        <v>471.8000591907772</v>
       </c>
       <c r="R33" t="n">
         <v>14.66317949184232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.89014897190251</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K34" t="n">
-        <v>65.62525498644125</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L34" t="n">
         <v>410.4028893870844</v>
@@ -37241,13 +37241,13 @@
         <v>435.8874471104327</v>
       </c>
       <c r="O34" t="n">
-        <v>402.774769158706</v>
+        <v>84.51743641250343</v>
       </c>
       <c r="P34" t="n">
         <v>64.52118858874761</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.93067198259681</v>
+        <v>68.47907872714917</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>306.8530616732681</v>
       </c>
       <c r="K36" t="n">
-        <v>135.7583235882914</v>
+        <v>245.9418755839665</v>
       </c>
       <c r="L36" t="n">
         <v>201.4939501547307</v>
@@ -37405,7 +37405,7 @@
         <v>172.2984447772874</v>
       </c>
       <c r="Q36" t="n">
-        <v>204.9390099739038</v>
+        <v>94.75545797822835</v>
       </c>
       <c r="R36" t="n">
         <v>103.5214789635405</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>21.20299793697029</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K37" t="n">
-        <v>63.31240602137346</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L37" t="n">
         <v>410.4028893870844</v>
@@ -37475,16 +37475,16 @@
         <v>448.1052379230253</v>
       </c>
       <c r="N37" t="n">
-        <v>435.8874471104327</v>
+        <v>100.4992638300433</v>
       </c>
       <c r="O37" t="n">
-        <v>402.774769158706</v>
+        <v>84.51743641250343</v>
       </c>
       <c r="P37" t="n">
-        <v>64.52118858874761</v>
+        <v>318.9083238603184</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.93067198259681</v>
+        <v>149.4801267359676</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5423709677871216</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J39" t="n">
-        <v>148.6157703621305</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K39" t="n">
         <v>135.7583235882914</v>
@@ -37642,10 +37642,10 @@
         <v>172.2984447772874</v>
       </c>
       <c r="Q39" t="n">
-        <v>471.8000591907773</v>
+        <v>204.9390099739036</v>
       </c>
       <c r="R39" t="n">
-        <v>14.66317949184232</v>
+        <v>103.5214789635405</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>18.89014897190251</v>
+        <v>21.20299793697007</v>
       </c>
       <c r="K40" t="n">
-        <v>271.6762379261352</v>
+        <v>63.31240602137346</v>
       </c>
       <c r="L40" t="n">
         <v>410.4028893870844</v>
       </c>
       <c r="M40" t="n">
-        <v>99.65437982778741</v>
+        <v>448.1052379230253</v>
       </c>
       <c r="N40" t="n">
-        <v>314.7545106769685</v>
+        <v>435.8874471104327</v>
       </c>
       <c r="O40" t="n">
         <v>402.774769158706</v>
       </c>
       <c r="P40" t="n">
-        <v>328.0540001777558</v>
+        <v>64.52118858874761</v>
       </c>
       <c r="Q40" t="n">
         <v>21.93067198259681</v>
@@ -37858,7 +37858,7 @@
         <v>0.5423709677871216</v>
       </c>
       <c r="J42" t="n">
-        <v>60.7233606887901</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K42" t="n">
         <v>135.7583235882914</v>
@@ -37879,10 +37879,10 @@
         <v>172.2984447772874</v>
       </c>
       <c r="Q42" t="n">
-        <v>470.8341693924194</v>
+        <v>313.5627678796399</v>
       </c>
       <c r="R42" t="n">
-        <v>103.5214789635405</v>
+        <v>14.66317949184232</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>84.54809203385847</v>
+        <v>18.89014897190251</v>
       </c>
       <c r="K43" t="n">
         <v>271.6762379261352</v>
       </c>
       <c r="L43" t="n">
-        <v>410.4028893870844</v>
+        <v>93.25227197797025</v>
       </c>
       <c r="M43" t="n">
-        <v>438.9595616055879</v>
+        <v>448.1052379230253</v>
       </c>
       <c r="N43" t="n">
-        <v>100.4992638300433</v>
+        <v>435.8874471104327</v>
       </c>
       <c r="O43" t="n">
-        <v>84.51743641250343</v>
+        <v>386.3249488747555</v>
       </c>
       <c r="P43" t="n">
-        <v>328.0540001777558</v>
+        <v>64.52118858874761</v>
       </c>
       <c r="Q43" t="n">
         <v>149.4801267359676</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229109</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.1289709513377</v>
+        <v>114.8797142585463</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7938168949561</v>
+        <v>192.9315787349164</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238498</v>
+        <v>254.444858903373</v>
       </c>
       <c r="M44" t="n">
-        <v>315.2099564264878</v>
+        <v>296.0746107600348</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1978501274</v>
+        <v>302.7528745626758</v>
       </c>
       <c r="O44" t="n">
-        <v>298.7869592732533</v>
+        <v>280.4256202420738</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531726</v>
+        <v>225.222733194653</v>
       </c>
       <c r="Q44" t="n">
-        <v>161.1941121877317</v>
+        <v>149.4258602996782</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471049</v>
+        <v>51.97975715298513</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.54989300907711</v>
+        <v>0.5423709677871216</v>
       </c>
       <c r="J45" t="n">
-        <v>312.361855595743</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K45" t="n">
-        <v>145.1737298295874</v>
+        <v>354.5656334897026</v>
       </c>
       <c r="L45" t="n">
-        <v>214.1541257794519</v>
+        <v>201.4939501547307</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8264825848162</v>
+        <v>243.0526547726732</v>
       </c>
       <c r="N45" t="n">
-        <v>270.5448280395447</v>
+        <v>255.379980966111</v>
       </c>
       <c r="O45" t="n">
-        <v>238.4057462161409</v>
+        <v>224.5328738373055</v>
       </c>
       <c r="P45" t="n">
-        <v>183.4326479153363</v>
+        <v>172.2984447772874</v>
       </c>
       <c r="Q45" t="n">
-        <v>272.2831751509797</v>
+        <v>94.75545797822835</v>
       </c>
       <c r="R45" t="n">
-        <v>107.1416677554515</v>
+        <v>14.66317949184232</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547858</v>
+        <v>74.82080375707612</v>
       </c>
       <c r="K46" t="n">
-        <v>68.99174184448033</v>
+        <v>63.31240602137346</v>
       </c>
       <c r="L46" t="n">
-        <v>417.6704839137738</v>
+        <v>93.25227197797025</v>
       </c>
       <c r="M46" t="n">
-        <v>455.7678973594753</v>
+        <v>448.1052379230253</v>
       </c>
       <c r="N46" t="n">
-        <v>443.3679056323699</v>
+        <v>435.8874471104327</v>
       </c>
       <c r="O46" t="n">
-        <v>409.6841833510116</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P46" t="n">
-        <v>160.0217794650457</v>
+        <v>328.0540001777558</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.02397106449331</v>
+        <v>21.93067198259681</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
